--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1124">
   <si>
     <t>AnalyteName</t>
   </si>
@@ -3356,7 +3356,7 @@
     <t>14.248</t>
   </si>
   <si>
-    <t>Analyte 1</t>
+    <t>Analyte 1 (CCL2)</t>
   </si>
   <si>
     <t>GNR1</t>
@@ -3378,6 +3378,15 @@
   </si>
   <si>
     <t>GNR3Signal</t>
+  </si>
+  <si>
+    <t>Analyte 2 (IL-6)</t>
+  </si>
+  <si>
+    <t>Analyte 3 (TNF-a)</t>
+  </si>
+  <si>
+    <t>Analyte 4 (VEGF-A)</t>
   </si>
 </sst>
 </file>
@@ -13058,7 +13067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13124,6 +13133,500 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L42" t="s">
+        <v>48</v>
+      </c>
+      <c r="M42" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L62" t="s">
+        <v>48</v>
+      </c>
+      <c r="M62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" t="s">
+        <v>24</v>
+      </c>
+      <c r="O62" t="s">
+        <v>28</v>
+      </c>
+      <c r="P62" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1117">
   <si>
     <t>AnalyteName</t>
   </si>
@@ -3359,18 +3359,6 @@
     <t>Analyte 1 (CCL2)</t>
   </si>
   <si>
-    <t>GNR1</t>
-  </si>
-  <si>
-    <t>GNR1RFU</t>
-  </si>
-  <si>
-    <t>GNR2RFU</t>
-  </si>
-  <si>
-    <t>GNR3RFU</t>
-  </si>
-  <si>
     <t>GNR1Signal</t>
   </si>
   <si>
@@ -3378,15 +3366,6 @@
   </si>
   <si>
     <t>GNR3Signal</t>
-  </si>
-  <si>
-    <t>Analyte 2 (IL-6)</t>
-  </si>
-  <si>
-    <t>Analyte 3 (TNF-a)</t>
-  </si>
-  <si>
-    <t>Analyte 4 (VEGF-A)</t>
   </si>
 </sst>
 </file>
@@ -13067,7 +13046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13075,556 +13054,829 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>46</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
         <v>1114</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>1115</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>1116</v>
       </c>
-      <c r="F2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1119</v>
-      </c>
       <c r="K2" t="s">
-        <v>1120</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:16">
       <c r="A3" t="n">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:16">
       <c r="A4" t="n">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N4" t="s">
+        <v>166</v>
+      </c>
+      <c r="O4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:16">
       <c r="A5" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O5" t="s">
+        <v>233</v>
+      </c>
+      <c r="P5" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:16">
       <c r="A6" t="n">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" t="s">
+        <v>298</v>
+      </c>
+      <c r="I6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J6" t="s">
+        <v>298</v>
+      </c>
+      <c r="K6" t="s">
+        <v>298</v>
+      </c>
+      <c r="L6" t="s">
+        <v>298</v>
+      </c>
+      <c r="M6" t="s">
+        <v>298</v>
+      </c>
+      <c r="N6" t="s">
+        <v>298</v>
+      </c>
+      <c r="O6" t="s">
+        <v>298</v>
+      </c>
+      <c r="P6" t="s">
+        <v>298</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:16">
       <c r="A7" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:16">
       <c r="A8" t="n">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" t="s">
+        <v>425</v>
+      </c>
+      <c r="F8" t="s">
+        <v>425</v>
+      </c>
+      <c r="G8" t="s">
+        <v>425</v>
+      </c>
+      <c r="H8" t="s">
+        <v>425</v>
+      </c>
+      <c r="I8" t="s">
+        <v>425</v>
+      </c>
+      <c r="J8" t="s">
+        <v>425</v>
+      </c>
+      <c r="K8" t="s">
+        <v>425</v>
+      </c>
+      <c r="L8" t="s">
+        <v>425</v>
+      </c>
+      <c r="M8" t="s">
+        <v>425</v>
+      </c>
+      <c r="N8" t="s">
+        <v>425</v>
+      </c>
+      <c r="O8" t="s">
+        <v>425</v>
+      </c>
+      <c r="P8" t="s">
+        <v>425</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:16">
       <c r="A9" t="n">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" t="s">
+        <v>490</v>
+      </c>
+      <c r="D9" t="s">
+        <v>490</v>
+      </c>
+      <c r="E9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F9" t="s">
+        <v>490</v>
+      </c>
+      <c r="G9" t="s">
+        <v>490</v>
+      </c>
+      <c r="H9" t="s">
+        <v>490</v>
+      </c>
+      <c r="I9" t="s">
+        <v>490</v>
+      </c>
+      <c r="J9" t="s">
+        <v>490</v>
+      </c>
+      <c r="K9" t="s">
+        <v>490</v>
+      </c>
+      <c r="L9" t="s">
+        <v>490</v>
+      </c>
+      <c r="M9" t="s">
+        <v>490</v>
+      </c>
+      <c r="N9" t="s">
+        <v>490</v>
+      </c>
+      <c r="O9" t="s">
+        <v>490</v>
+      </c>
+      <c r="P9" t="s">
+        <v>490</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:16">
       <c r="A10" t="n">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D10" t="s">
+        <v>552</v>
+      </c>
+      <c r="E10" t="s">
+        <v>552</v>
+      </c>
+      <c r="F10" t="s">
+        <v>552</v>
+      </c>
+      <c r="G10" t="s">
+        <v>552</v>
+      </c>
+      <c r="H10" t="s">
+        <v>552</v>
+      </c>
+      <c r="I10" t="s">
+        <v>552</v>
+      </c>
+      <c r="J10" t="s">
+        <v>552</v>
+      </c>
+      <c r="K10" t="s">
+        <v>552</v>
+      </c>
+      <c r="L10" t="s">
+        <v>552</v>
+      </c>
+      <c r="M10" t="s">
+        <v>552</v>
+      </c>
+      <c r="N10" t="s">
+        <v>552</v>
+      </c>
+      <c r="O10" t="s">
+        <v>552</v>
+      </c>
+      <c r="P10" t="s">
+        <v>552</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:16">
       <c r="A11" t="n">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>614</v>
+      </c>
+      <c r="C11" t="s">
+        <v>619</v>
+      </c>
+      <c r="D11" t="s">
+        <v>619</v>
+      </c>
+      <c r="E11" t="s">
+        <v>619</v>
+      </c>
+      <c r="F11" t="s">
+        <v>619</v>
+      </c>
+      <c r="G11" t="s">
+        <v>619</v>
+      </c>
+      <c r="H11" t="s">
+        <v>619</v>
+      </c>
+      <c r="I11" t="s">
+        <v>619</v>
+      </c>
+      <c r="J11" t="s">
+        <v>619</v>
+      </c>
+      <c r="K11" t="s">
+        <v>619</v>
+      </c>
+      <c r="L11" t="s">
+        <v>619</v>
+      </c>
+      <c r="M11" t="s">
+        <v>619</v>
+      </c>
+      <c r="N11" t="s">
+        <v>619</v>
+      </c>
+      <c r="O11" t="s">
+        <v>619</v>
+      </c>
+      <c r="P11" t="s">
+        <v>619</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:16">
       <c r="A12" t="n">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>680</v>
+      </c>
+      <c r="C12" t="s">
+        <v>685</v>
+      </c>
+      <c r="D12" t="s">
+        <v>685</v>
+      </c>
+      <c r="E12" t="s">
+        <v>685</v>
+      </c>
+      <c r="F12" t="s">
+        <v>685</v>
+      </c>
+      <c r="G12" t="s">
+        <v>685</v>
+      </c>
+      <c r="H12" t="s">
+        <v>685</v>
+      </c>
+      <c r="I12" t="s">
+        <v>685</v>
+      </c>
+      <c r="J12" t="s">
+        <v>685</v>
+      </c>
+      <c r="K12" t="s">
+        <v>685</v>
+      </c>
+      <c r="L12" t="s">
+        <v>685</v>
+      </c>
+      <c r="M12" t="s">
+        <v>685</v>
+      </c>
+      <c r="N12" t="s">
+        <v>685</v>
+      </c>
+      <c r="O12" t="s">
+        <v>685</v>
+      </c>
+      <c r="P12" t="s">
+        <v>685</v>
+      </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:16">
       <c r="A13" t="n">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>745</v>
+      </c>
+      <c r="C13" t="s">
+        <v>749</v>
+      </c>
+      <c r="D13" t="s">
+        <v>749</v>
+      </c>
+      <c r="E13" t="s">
+        <v>749</v>
+      </c>
+      <c r="F13" t="s">
+        <v>749</v>
+      </c>
+      <c r="G13" t="s">
+        <v>749</v>
+      </c>
+      <c r="H13" t="s">
+        <v>749</v>
+      </c>
+      <c r="I13" t="s">
+        <v>749</v>
+      </c>
+      <c r="J13" t="s">
+        <v>749</v>
+      </c>
+      <c r="K13" t="s">
+        <v>749</v>
+      </c>
+      <c r="L13" t="s">
+        <v>749</v>
+      </c>
+      <c r="M13" t="s">
+        <v>749</v>
+      </c>
+      <c r="N13" t="s">
+        <v>749</v>
+      </c>
+      <c r="O13" t="s">
+        <v>749</v>
+      </c>
+      <c r="P13" t="s">
+        <v>749</v>
+      </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:16">
       <c r="A14" t="n">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>812</v>
+      </c>
+      <c r="C14" t="s">
+        <v>816</v>
+      </c>
+      <c r="D14" t="s">
+        <v>816</v>
+      </c>
+      <c r="E14" t="s">
+        <v>816</v>
+      </c>
+      <c r="F14" t="s">
+        <v>816</v>
+      </c>
+      <c r="G14" t="s">
+        <v>816</v>
+      </c>
+      <c r="H14" t="s">
+        <v>816</v>
+      </c>
+      <c r="I14" t="s">
+        <v>816</v>
+      </c>
+      <c r="J14" t="s">
+        <v>816</v>
+      </c>
+      <c r="K14" t="s">
+        <v>816</v>
+      </c>
+      <c r="L14" t="s">
+        <v>816</v>
+      </c>
+      <c r="M14" t="s">
+        <v>816</v>
+      </c>
+      <c r="N14" t="s">
+        <v>816</v>
+      </c>
+      <c r="O14" t="s">
+        <v>816</v>
+      </c>
+      <c r="P14" t="s">
+        <v>816</v>
+      </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:16">
       <c r="A15" t="n">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" t="s">
+        <v>875</v>
+      </c>
+      <c r="D15" t="s">
+        <v>875</v>
+      </c>
+      <c r="E15" t="s">
+        <v>875</v>
+      </c>
+      <c r="F15" t="s">
+        <v>875</v>
+      </c>
+      <c r="G15" t="s">
+        <v>875</v>
+      </c>
+      <c r="H15" t="s">
+        <v>875</v>
+      </c>
+      <c r="I15" t="s">
+        <v>875</v>
+      </c>
+      <c r="J15" t="s">
+        <v>875</v>
+      </c>
+      <c r="K15" t="s">
+        <v>875</v>
+      </c>
+      <c r="L15" t="s">
+        <v>875</v>
+      </c>
+      <c r="M15" t="s">
+        <v>875</v>
+      </c>
+      <c r="N15" t="s">
+        <v>875</v>
+      </c>
+      <c r="O15" t="s">
+        <v>875</v>
+      </c>
+      <c r="P15" t="s">
+        <v>875</v>
+      </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:16">
       <c r="A16" t="n">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>812</v>
+      </c>
+      <c r="C16" t="s">
+        <v>934</v>
+      </c>
+      <c r="D16" t="s">
+        <v>934</v>
+      </c>
+      <c r="E16" t="s">
+        <v>934</v>
+      </c>
+      <c r="F16" t="s">
+        <v>934</v>
+      </c>
+      <c r="G16" t="s">
+        <v>934</v>
+      </c>
+      <c r="H16" t="s">
+        <v>934</v>
+      </c>
+      <c r="I16" t="s">
+        <v>934</v>
+      </c>
+      <c r="J16" t="s">
+        <v>934</v>
+      </c>
+      <c r="K16" t="s">
+        <v>934</v>
+      </c>
+      <c r="L16" t="s">
+        <v>934</v>
+      </c>
+      <c r="M16" t="s">
+        <v>934</v>
+      </c>
+      <c r="N16" t="s">
+        <v>934</v>
+      </c>
+      <c r="O16" t="s">
+        <v>934</v>
+      </c>
+      <c r="P16" t="s">
+        <v>934</v>
+      </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:16">
       <c r="A17" t="n">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>985</v>
+      </c>
+      <c r="C17" t="s">
+        <v>990</v>
+      </c>
+      <c r="D17" t="s">
+        <v>990</v>
+      </c>
+      <c r="E17" t="s">
+        <v>990</v>
+      </c>
+      <c r="F17" t="s">
+        <v>990</v>
+      </c>
+      <c r="G17" t="s">
+        <v>990</v>
+      </c>
+      <c r="H17" t="s">
+        <v>990</v>
+      </c>
+      <c r="I17" t="s">
+        <v>990</v>
+      </c>
+      <c r="J17" t="s">
+        <v>990</v>
+      </c>
+      <c r="K17" t="s">
+        <v>990</v>
+      </c>
+      <c r="L17" t="s">
+        <v>990</v>
+      </c>
+      <c r="M17" t="s">
+        <v>990</v>
+      </c>
+      <c r="N17" t="s">
+        <v>990</v>
+      </c>
+      <c r="O17" t="s">
+        <v>990</v>
+      </c>
+      <c r="P17" t="s">
+        <v>990</v>
+      </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:16">
       <c r="A18" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1118</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1119</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1120</v>
-      </c>
-      <c r="L22" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G42" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1118</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1119</v>
-      </c>
-      <c r="K42" t="s">
-        <v>1120</v>
-      </c>
-      <c r="L42" t="s">
-        <v>48</v>
-      </c>
-      <c r="M42" t="s">
-        <v>20</v>
-      </c>
-      <c r="N42" t="s">
-        <v>24</v>
-      </c>
-      <c r="O42" t="s">
-        <v>28</v>
-      </c>
-      <c r="P42" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G62" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" t="s">
-        <v>42</v>
-      </c>
-      <c r="I62" t="s">
-        <v>1118</v>
-      </c>
-      <c r="J62" t="s">
-        <v>1119</v>
-      </c>
-      <c r="K62" t="s">
-        <v>1120</v>
-      </c>
-      <c r="L62" t="s">
-        <v>48</v>
-      </c>
-      <c r="M62" t="s">
-        <v>20</v>
-      </c>
-      <c r="N62" t="s">
-        <v>24</v>
-      </c>
-      <c r="O62" t="s">
-        <v>28</v>
-      </c>
-      <c r="P62" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="A77" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" t="n">
-        <v>16</v>
+      <c r="B18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1057</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjeffris\Documents\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Raw Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Summary1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary 2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="1117">
   <si>
     <t>AnalyteName</t>
   </si>
@@ -3359,32 +3365,31 @@
     <t>Analyte 1 (CCL2)</t>
   </si>
   <si>
-    <t>GNR1Signal</t>
-  </si>
-  <si>
-    <t>GNR2Signal</t>
-  </si>
-  <si>
-    <t>GNR3Signal</t>
+    <t>Analyte 2 (IL-6)</t>
+  </si>
+  <si>
+    <t>Analyte 3 (TNF-a)</t>
+  </si>
+  <si>
+    <t>Analyte 4 (VEGF-A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -3400,15 +3405,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3696,20 +3710,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3861,7 +3869,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -3874,8 +3882,6 @@
       <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
       <c r="G2" t="s">
         <v>54</v>
       </c>
@@ -3957,7 +3963,6 @@
       <c r="AG2" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" t="s"/>
       <c r="AI2" t="s">
         <v>57</v>
       </c>
@@ -3970,11 +3975,9 @@
       <c r="AL2" t="s">
         <v>79</v>
       </c>
-      <c r="AM2" t="s"/>
       <c r="AN2" t="s">
         <v>80</v>
       </c>
-      <c r="AO2" t="s"/>
       <c r="AP2" t="s">
         <v>81</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -4016,7 +4019,6 @@
       <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" t="s"/>
       <c r="F3" t="s">
         <v>91</v>
       </c>
@@ -4101,7 +4103,6 @@
       <c r="AG3" t="s">
         <v>76</v>
       </c>
-      <c r="AH3" t="s"/>
       <c r="AI3" t="s">
         <v>57</v>
       </c>
@@ -4114,11 +4115,9 @@
       <c r="AL3" t="s">
         <v>79</v>
       </c>
-      <c r="AM3" t="s"/>
       <c r="AN3" t="s">
         <v>80</v>
       </c>
-      <c r="AO3" t="s"/>
       <c r="AP3" t="s">
         <v>110</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -4160,7 +4159,6 @@
       <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>116</v>
       </c>
@@ -4245,7 +4243,6 @@
       <c r="AG4" t="s">
         <v>76</v>
       </c>
-      <c r="AH4" t="s"/>
       <c r="AI4" t="s">
         <v>57</v>
       </c>
@@ -4258,11 +4255,9 @@
       <c r="AL4" t="s">
         <v>79</v>
       </c>
-      <c r="AM4" t="s"/>
       <c r="AN4" t="s">
         <v>80</v>
       </c>
-      <c r="AO4" t="s"/>
       <c r="AP4" t="s">
         <v>133</v>
       </c>
@@ -4291,7 +4286,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -4304,7 +4299,6 @@
       <c r="D5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s"/>
       <c r="F5" t="s">
         <v>139</v>
       </c>
@@ -4389,7 +4383,6 @@
       <c r="AG5" t="s">
         <v>76</v>
       </c>
-      <c r="AH5" t="s"/>
       <c r="AI5" t="s">
         <v>57</v>
       </c>
@@ -4402,11 +4395,9 @@
       <c r="AL5" t="s">
         <v>79</v>
       </c>
-      <c r="AM5" t="s"/>
       <c r="AN5" t="s">
         <v>80</v>
       </c>
-      <c r="AO5" t="s"/>
       <c r="AP5" t="s">
         <v>157</v>
       </c>
@@ -4435,7 +4426,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -4448,7 +4439,6 @@
       <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s"/>
       <c r="F6" t="s">
         <v>162</v>
       </c>
@@ -4533,7 +4523,6 @@
       <c r="AG6" t="s">
         <v>76</v>
       </c>
-      <c r="AH6" t="s"/>
       <c r="AI6" t="s">
         <v>95</v>
       </c>
@@ -4546,11 +4535,9 @@
       <c r="AL6" t="s">
         <v>79</v>
       </c>
-      <c r="AM6" t="s"/>
       <c r="AN6" t="s">
         <v>80</v>
       </c>
-      <c r="AO6" t="s"/>
       <c r="AP6" t="s">
         <v>174</v>
       </c>
@@ -4579,7 +4566,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -4592,7 +4579,6 @@
       <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s"/>
       <c r="F7" t="s">
         <v>179</v>
       </c>
@@ -4677,7 +4663,6 @@
       <c r="AG7" t="s">
         <v>76</v>
       </c>
-      <c r="AH7" t="s"/>
       <c r="AI7" t="s">
         <v>95</v>
       </c>
@@ -4690,11 +4675,9 @@
       <c r="AL7" t="s">
         <v>79</v>
       </c>
-      <c r="AM7" t="s"/>
       <c r="AN7" t="s">
         <v>80</v>
       </c>
-      <c r="AO7" t="s"/>
       <c r="AP7" t="s">
         <v>191</v>
       </c>
@@ -4723,7 +4706,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -4736,7 +4719,6 @@
       <c r="D8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>196</v>
       </c>
@@ -4821,7 +4803,6 @@
       <c r="AG8" t="s">
         <v>76</v>
       </c>
-      <c r="AH8" t="s"/>
       <c r="AI8" t="s">
         <v>95</v>
       </c>
@@ -4834,11 +4815,9 @@
       <c r="AL8" t="s">
         <v>79</v>
       </c>
-      <c r="AM8" t="s"/>
       <c r="AN8" t="s">
         <v>80</v>
       </c>
-      <c r="AO8" t="s"/>
       <c r="AP8" t="s">
         <v>208</v>
       </c>
@@ -4867,7 +4846,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -4880,7 +4859,6 @@
       <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>212</v>
       </c>
@@ -4965,7 +4943,6 @@
       <c r="AG9" t="s">
         <v>76</v>
       </c>
-      <c r="AH9" t="s"/>
       <c r="AI9" t="s">
         <v>95</v>
       </c>
@@ -4978,11 +4955,9 @@
       <c r="AL9" t="s">
         <v>79</v>
       </c>
-      <c r="AM9" t="s"/>
       <c r="AN9" t="s">
         <v>80</v>
       </c>
-      <c r="AO9" t="s"/>
       <c r="AP9" t="s">
         <v>224</v>
       </c>
@@ -5011,7 +4986,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -5024,7 +4999,6 @@
       <c r="D10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" t="s"/>
       <c r="F10" t="s">
         <v>229</v>
       </c>
@@ -5109,7 +5083,6 @@
       <c r="AG10" t="s">
         <v>76</v>
       </c>
-      <c r="AH10" t="s"/>
       <c r="AI10" t="s">
         <v>76</v>
       </c>
@@ -5122,11 +5095,9 @@
       <c r="AL10" t="s">
         <v>79</v>
       </c>
-      <c r="AM10" t="s"/>
       <c r="AN10" t="s">
         <v>80</v>
       </c>
-      <c r="AO10" t="s"/>
       <c r="AP10" t="s">
         <v>241</v>
       </c>
@@ -5155,7 +5126,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -5168,7 +5139,6 @@
       <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s"/>
       <c r="F11" t="s">
         <v>246</v>
       </c>
@@ -5253,7 +5223,6 @@
       <c r="AG11" t="s">
         <v>76</v>
       </c>
-      <c r="AH11" t="s"/>
       <c r="AI11" t="s">
         <v>76</v>
       </c>
@@ -5266,11 +5235,9 @@
       <c r="AL11" t="s">
         <v>79</v>
       </c>
-      <c r="AM11" t="s"/>
       <c r="AN11" t="s">
         <v>80</v>
       </c>
-      <c r="AO11" t="s"/>
       <c r="AP11" t="s">
         <v>257</v>
       </c>
@@ -5299,7 +5266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -5312,7 +5279,6 @@
       <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s"/>
       <c r="F12" t="s">
         <v>261</v>
       </c>
@@ -5397,7 +5363,6 @@
       <c r="AG12" t="s">
         <v>76</v>
       </c>
-      <c r="AH12" t="s"/>
       <c r="AI12" t="s">
         <v>76</v>
       </c>
@@ -5410,11 +5375,9 @@
       <c r="AL12" t="s">
         <v>79</v>
       </c>
-      <c r="AM12" t="s"/>
       <c r="AN12" t="s">
         <v>80</v>
       </c>
-      <c r="AO12" t="s"/>
       <c r="AP12" t="s">
         <v>273</v>
       </c>
@@ -5443,7 +5406,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -5456,7 +5419,6 @@
       <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s"/>
       <c r="F13" t="s">
         <v>278</v>
       </c>
@@ -5541,7 +5503,6 @@
       <c r="AG13" t="s">
         <v>76</v>
       </c>
-      <c r="AH13" t="s"/>
       <c r="AI13" t="s">
         <v>76</v>
       </c>
@@ -5554,11 +5515,9 @@
       <c r="AL13" t="s">
         <v>79</v>
       </c>
-      <c r="AM13" t="s"/>
       <c r="AN13" t="s">
         <v>80</v>
       </c>
-      <c r="AO13" t="s"/>
       <c r="AP13" t="s">
         <v>289</v>
       </c>
@@ -5587,7 +5546,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -5600,7 +5559,6 @@
       <c r="D14" t="s">
         <v>53</v>
       </c>
-      <c r="E14" t="s"/>
       <c r="F14" t="s">
         <v>294</v>
       </c>
@@ -5685,7 +5643,6 @@
       <c r="AG14" t="s">
         <v>76</v>
       </c>
-      <c r="AH14" t="s"/>
       <c r="AI14" t="s">
         <v>142</v>
       </c>
@@ -5698,11 +5655,9 @@
       <c r="AL14" t="s">
         <v>79</v>
       </c>
-      <c r="AM14" t="s"/>
       <c r="AN14" t="s">
         <v>80</v>
       </c>
-      <c r="AO14" t="s"/>
       <c r="AP14" t="s">
         <v>306</v>
       </c>
@@ -5731,7 +5686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -5744,7 +5699,6 @@
       <c r="D15" t="s">
         <v>53</v>
       </c>
-      <c r="E15" t="s"/>
       <c r="F15" t="s">
         <v>311</v>
       </c>
@@ -5829,7 +5783,6 @@
       <c r="AG15" t="s">
         <v>76</v>
       </c>
-      <c r="AH15" t="s"/>
       <c r="AI15" t="s">
         <v>142</v>
       </c>
@@ -5842,11 +5795,9 @@
       <c r="AL15" t="s">
         <v>79</v>
       </c>
-      <c r="AM15" t="s"/>
       <c r="AN15" t="s">
         <v>80</v>
       </c>
-      <c r="AO15" t="s"/>
       <c r="AP15" t="s">
         <v>323</v>
       </c>
@@ -5875,7 +5826,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -5888,7 +5839,6 @@
       <c r="D16" t="s">
         <v>53</v>
       </c>
-      <c r="E16" t="s"/>
       <c r="F16" t="s">
         <v>327</v>
       </c>
@@ -5973,7 +5923,6 @@
       <c r="AG16" t="s">
         <v>76</v>
       </c>
-      <c r="AH16" t="s"/>
       <c r="AI16" t="s">
         <v>142</v>
       </c>
@@ -5986,11 +5935,9 @@
       <c r="AL16" t="s">
         <v>79</v>
       </c>
-      <c r="AM16" t="s"/>
       <c r="AN16" t="s">
         <v>80</v>
       </c>
-      <c r="AO16" t="s"/>
       <c r="AP16" t="s">
         <v>339</v>
       </c>
@@ -6019,7 +5966,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -6032,7 +5979,6 @@
       <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s"/>
       <c r="F17" t="s">
         <v>344</v>
       </c>
@@ -6117,7 +6063,6 @@
       <c r="AG17" t="s">
         <v>76</v>
       </c>
-      <c r="AH17" t="s"/>
       <c r="AI17" t="s">
         <v>142</v>
       </c>
@@ -6130,11 +6075,9 @@
       <c r="AL17" t="s">
         <v>79</v>
       </c>
-      <c r="AM17" t="s"/>
       <c r="AN17" t="s">
         <v>80</v>
       </c>
-      <c r="AO17" t="s"/>
       <c r="AP17" t="s">
         <v>356</v>
       </c>
@@ -6163,7 +6106,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -6176,7 +6119,6 @@
       <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="E18" t="s"/>
       <c r="F18" t="s">
         <v>360</v>
       </c>
@@ -6222,10 +6164,6 @@
       <c r="T18" t="s">
         <v>66</v>
       </c>
-      <c r="U18" t="s"/>
-      <c r="V18" t="s"/>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
       <c r="Y18" t="s">
         <v>363</v>
       </c>
@@ -6253,7 +6191,6 @@
       <c r="AG18" t="s">
         <v>95</v>
       </c>
-      <c r="AH18" t="s"/>
       <c r="AI18" t="s">
         <v>369</v>
       </c>
@@ -6266,11 +6203,9 @@
       <c r="AL18" t="s">
         <v>79</v>
       </c>
-      <c r="AM18" t="s"/>
       <c r="AN18" t="s">
         <v>80</v>
       </c>
-      <c r="AO18" t="s"/>
       <c r="AP18" t="s">
         <v>370</v>
       </c>
@@ -6299,7 +6234,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -6312,7 +6247,6 @@
       <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="E19" t="s"/>
       <c r="F19" t="s">
         <v>375</v>
       </c>
@@ -6397,7 +6331,6 @@
       <c r="AG19" t="s">
         <v>76</v>
       </c>
-      <c r="AH19" t="s"/>
       <c r="AI19" t="s">
         <v>369</v>
       </c>
@@ -6410,11 +6343,9 @@
       <c r="AL19" t="s">
         <v>79</v>
       </c>
-      <c r="AM19" t="s"/>
       <c r="AN19" t="s">
         <v>80</v>
       </c>
-      <c r="AO19" t="s"/>
       <c r="AP19" t="s">
         <v>387</v>
       </c>
@@ -6443,7 +6374,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -6456,7 +6387,6 @@
       <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" t="s"/>
       <c r="F20" t="s">
         <v>391</v>
       </c>
@@ -6541,7 +6471,6 @@
       <c r="AG20" t="s">
         <v>76</v>
       </c>
-      <c r="AH20" t="s"/>
       <c r="AI20" t="s">
         <v>369</v>
       </c>
@@ -6554,11 +6483,9 @@
       <c r="AL20" t="s">
         <v>79</v>
       </c>
-      <c r="AM20" t="s"/>
       <c r="AN20" t="s">
         <v>80</v>
       </c>
-      <c r="AO20" t="s"/>
       <c r="AP20" t="s">
         <v>403</v>
       </c>
@@ -6587,7 +6514,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -6600,7 +6527,6 @@
       <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="E21" t="s"/>
       <c r="F21" t="s">
         <v>407</v>
       </c>
@@ -6685,7 +6611,6 @@
       <c r="AG21" t="s">
         <v>76</v>
       </c>
-      <c r="AH21" t="s"/>
       <c r="AI21" t="s">
         <v>369</v>
       </c>
@@ -6698,11 +6623,9 @@
       <c r="AL21" t="s">
         <v>79</v>
       </c>
-      <c r="AM21" t="s"/>
       <c r="AN21" t="s">
         <v>80</v>
       </c>
-      <c r="AO21" t="s"/>
       <c r="AP21" t="s">
         <v>419</v>
       </c>
@@ -6731,7 +6654,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -6744,7 +6667,6 @@
       <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="E22" t="s"/>
       <c r="F22" t="s">
         <v>424</v>
       </c>
@@ -6829,7 +6751,6 @@
       <c r="AG22" t="s">
         <v>76</v>
       </c>
-      <c r="AH22" t="s"/>
       <c r="AI22" t="s">
         <v>431</v>
       </c>
@@ -6842,11 +6763,9 @@
       <c r="AL22" t="s">
         <v>79</v>
       </c>
-      <c r="AM22" t="s"/>
       <c r="AN22" t="s">
         <v>80</v>
       </c>
-      <c r="AO22" t="s"/>
       <c r="AP22" t="s">
         <v>432</v>
       </c>
@@ -6875,7 +6794,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -6888,7 +6807,6 @@
       <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="E23" t="s"/>
       <c r="F23" t="s">
         <v>437</v>
       </c>
@@ -6973,7 +6891,6 @@
       <c r="AG23" t="s">
         <v>76</v>
       </c>
-      <c r="AH23" t="s"/>
       <c r="AI23" t="s">
         <v>431</v>
       </c>
@@ -6986,11 +6903,9 @@
       <c r="AL23" t="s">
         <v>79</v>
       </c>
-      <c r="AM23" t="s"/>
       <c r="AN23" t="s">
         <v>80</v>
       </c>
-      <c r="AO23" t="s"/>
       <c r="AP23" t="s">
         <v>449</v>
       </c>
@@ -7019,7 +6934,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -7032,7 +6947,6 @@
       <c r="D24" t="s">
         <v>53</v>
       </c>
-      <c r="E24" t="s"/>
       <c r="F24" t="s">
         <v>454</v>
       </c>
@@ -7117,7 +7031,6 @@
       <c r="AG24" t="s">
         <v>76</v>
       </c>
-      <c r="AH24" t="s"/>
       <c r="AI24" t="s">
         <v>431</v>
       </c>
@@ -7130,11 +7043,9 @@
       <c r="AL24" t="s">
         <v>79</v>
       </c>
-      <c r="AM24" t="s"/>
       <c r="AN24" t="s">
         <v>80</v>
       </c>
-      <c r="AO24" t="s"/>
       <c r="AP24" t="s">
         <v>465</v>
       </c>
@@ -7163,7 +7074,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -7176,7 +7087,6 @@
       <c r="D25" t="s">
         <v>53</v>
       </c>
-      <c r="E25" t="s"/>
       <c r="F25" t="s">
         <v>470</v>
       </c>
@@ -7261,7 +7171,6 @@
       <c r="AG25" t="s">
         <v>76</v>
       </c>
-      <c r="AH25" t="s"/>
       <c r="AI25" t="s">
         <v>431</v>
       </c>
@@ -7274,11 +7183,9 @@
       <c r="AL25" t="s">
         <v>79</v>
       </c>
-      <c r="AM25" t="s"/>
       <c r="AN25" t="s">
         <v>80</v>
       </c>
-      <c r="AO25" t="s"/>
       <c r="AP25" t="s">
         <v>481</v>
       </c>
@@ -7307,7 +7214,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -7320,7 +7227,6 @@
       <c r="D26" t="s">
         <v>53</v>
       </c>
-      <c r="E26" t="s"/>
       <c r="F26" t="s">
         <v>486</v>
       </c>
@@ -7390,14 +7296,9 @@
       <c r="AB26" t="s">
         <v>494</v>
       </c>
-      <c r="AC26" t="s"/>
-      <c r="AD26" t="s"/>
-      <c r="AE26" t="s"/>
-      <c r="AF26" t="s"/>
       <c r="AG26" t="s">
         <v>95</v>
       </c>
-      <c r="AH26" t="s"/>
       <c r="AI26" t="s">
         <v>495</v>
       </c>
@@ -7410,11 +7311,9 @@
       <c r="AL26" t="s">
         <v>79</v>
       </c>
-      <c r="AM26" t="s"/>
       <c r="AN26" t="s">
         <v>80</v>
       </c>
-      <c r="AO26" t="s"/>
       <c r="AP26" t="s">
         <v>496</v>
       </c>
@@ -7443,7 +7342,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -7456,7 +7355,6 @@
       <c r="D27" t="s">
         <v>53</v>
       </c>
-      <c r="E27" t="s"/>
       <c r="F27" t="s">
         <v>501</v>
       </c>
@@ -7541,7 +7439,6 @@
       <c r="AG27" t="s">
         <v>76</v>
       </c>
-      <c r="AH27" t="s"/>
       <c r="AI27" t="s">
         <v>495</v>
       </c>
@@ -7554,11 +7451,9 @@
       <c r="AL27" t="s">
         <v>79</v>
       </c>
-      <c r="AM27" t="s"/>
       <c r="AN27" t="s">
         <v>80</v>
       </c>
-      <c r="AO27" t="s"/>
       <c r="AP27" t="s">
         <v>513</v>
       </c>
@@ -7587,7 +7482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -7600,7 +7495,6 @@
       <c r="D28" t="s">
         <v>53</v>
       </c>
-      <c r="E28" t="s"/>
       <c r="F28" t="s">
         <v>518</v>
       </c>
@@ -7685,7 +7579,6 @@
       <c r="AG28" t="s">
         <v>76</v>
       </c>
-      <c r="AH28" t="s"/>
       <c r="AI28" t="s">
         <v>495</v>
       </c>
@@ -7698,11 +7591,9 @@
       <c r="AL28" t="s">
         <v>79</v>
       </c>
-      <c r="AM28" t="s"/>
       <c r="AN28" t="s">
         <v>80</v>
       </c>
-      <c r="AO28" t="s"/>
       <c r="AP28" t="s">
         <v>530</v>
       </c>
@@ -7731,7 +7622,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>137</v>
       </c>
@@ -7744,7 +7635,6 @@
       <c r="D29" t="s">
         <v>53</v>
       </c>
-      <c r="E29" t="s"/>
       <c r="F29" t="s">
         <v>535</v>
       </c>
@@ -7829,7 +7719,6 @@
       <c r="AG29" t="s">
         <v>76</v>
       </c>
-      <c r="AH29" t="s"/>
       <c r="AI29" t="s">
         <v>495</v>
       </c>
@@ -7842,11 +7731,9 @@
       <c r="AL29" t="s">
         <v>79</v>
       </c>
-      <c r="AM29" t="s"/>
       <c r="AN29" t="s">
         <v>80</v>
       </c>
-      <c r="AO29" t="s"/>
       <c r="AP29" t="s">
         <v>545</v>
       </c>
@@ -7875,7 +7762,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -7888,7 +7775,6 @@
       <c r="D30" t="s">
         <v>53</v>
       </c>
-      <c r="E30" t="s"/>
       <c r="F30" t="s">
         <v>549</v>
       </c>
@@ -7973,7 +7859,6 @@
       <c r="AG30" t="s">
         <v>76</v>
       </c>
-      <c r="AH30" t="s"/>
       <c r="AI30" t="s">
         <v>560</v>
       </c>
@@ -7986,11 +7871,9 @@
       <c r="AL30" t="s">
         <v>79</v>
       </c>
-      <c r="AM30" t="s"/>
       <c r="AN30" t="s">
         <v>80</v>
       </c>
-      <c r="AO30" t="s"/>
       <c r="AP30" t="s">
         <v>561</v>
       </c>
@@ -8019,7 +7902,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -8032,7 +7915,6 @@
       <c r="D31" t="s">
         <v>53</v>
       </c>
-      <c r="E31" t="s"/>
       <c r="F31" t="s">
         <v>565</v>
       </c>
@@ -8117,7 +7999,6 @@
       <c r="AG31" t="s">
         <v>76</v>
       </c>
-      <c r="AH31" t="s"/>
       <c r="AI31" t="s">
         <v>560</v>
       </c>
@@ -8130,11 +8011,9 @@
       <c r="AL31" t="s">
         <v>79</v>
       </c>
-      <c r="AM31" t="s"/>
       <c r="AN31" t="s">
         <v>80</v>
       </c>
-      <c r="AO31" t="s"/>
       <c r="AP31" t="s">
         <v>395</v>
       </c>
@@ -8163,7 +8042,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -8176,7 +8055,6 @@
       <c r="D32" t="s">
         <v>53</v>
       </c>
-      <c r="E32" t="s"/>
       <c r="F32" t="s">
         <v>581</v>
       </c>
@@ -8261,7 +8139,6 @@
       <c r="AG32" t="s">
         <v>76</v>
       </c>
-      <c r="AH32" t="s"/>
       <c r="AI32" t="s">
         <v>560</v>
       </c>
@@ -8274,11 +8151,9 @@
       <c r="AL32" t="s">
         <v>79</v>
       </c>
-      <c r="AM32" t="s"/>
       <c r="AN32" t="s">
         <v>80</v>
       </c>
-      <c r="AO32" t="s"/>
       <c r="AP32" t="s">
         <v>593</v>
       </c>
@@ -8307,7 +8182,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -8320,7 +8195,6 @@
       <c r="D33" t="s">
         <v>53</v>
       </c>
-      <c r="E33" t="s"/>
       <c r="F33" t="s">
         <v>598</v>
       </c>
@@ -8405,7 +8279,6 @@
       <c r="AG33" t="s">
         <v>76</v>
       </c>
-      <c r="AH33" t="s"/>
       <c r="AI33" t="s">
         <v>560</v>
       </c>
@@ -8418,11 +8291,9 @@
       <c r="AL33" t="s">
         <v>79</v>
       </c>
-      <c r="AM33" t="s"/>
       <c r="AN33" t="s">
         <v>80</v>
       </c>
-      <c r="AO33" t="s"/>
       <c r="AP33" t="s">
         <v>610</v>
       </c>
@@ -8451,7 +8322,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -8464,7 +8335,6 @@
       <c r="D34" t="s">
         <v>53</v>
       </c>
-      <c r="E34" t="s"/>
       <c r="F34" t="s">
         <v>615</v>
       </c>
@@ -8549,7 +8419,6 @@
       <c r="AG34" t="s">
         <v>76</v>
       </c>
-      <c r="AH34" t="s"/>
       <c r="AI34" t="s">
         <v>627</v>
       </c>
@@ -8562,11 +8431,9 @@
       <c r="AL34" t="s">
         <v>79</v>
       </c>
-      <c r="AM34" t="s"/>
       <c r="AN34" t="s">
         <v>80</v>
       </c>
-      <c r="AO34" t="s"/>
       <c r="AP34" t="s">
         <v>628</v>
       </c>
@@ -8595,7 +8462,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -8608,7 +8475,6 @@
       <c r="D35" t="s">
         <v>53</v>
       </c>
-      <c r="E35" t="s"/>
       <c r="F35" t="s">
         <v>633</v>
       </c>
@@ -8693,7 +8559,6 @@
       <c r="AG35" t="s">
         <v>76</v>
       </c>
-      <c r="AH35" t="s"/>
       <c r="AI35" t="s">
         <v>627</v>
       </c>
@@ -8706,11 +8571,9 @@
       <c r="AL35" t="s">
         <v>79</v>
       </c>
-      <c r="AM35" t="s"/>
       <c r="AN35" t="s">
         <v>80</v>
       </c>
-      <c r="AO35" t="s"/>
       <c r="AP35" t="s">
         <v>645</v>
       </c>
@@ -8739,7 +8602,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -8752,7 +8615,6 @@
       <c r="D36" t="s">
         <v>53</v>
       </c>
-      <c r="E36" t="s"/>
       <c r="F36" t="s">
         <v>223</v>
       </c>
@@ -8837,7 +8699,6 @@
       <c r="AG36" t="s">
         <v>76</v>
       </c>
-      <c r="AH36" t="s"/>
       <c r="AI36" t="s">
         <v>627</v>
       </c>
@@ -8850,11 +8711,9 @@
       <c r="AL36" t="s">
         <v>79</v>
       </c>
-      <c r="AM36" t="s"/>
       <c r="AN36" t="s">
         <v>80</v>
       </c>
-      <c r="AO36" t="s"/>
       <c r="AP36" t="s">
         <v>660</v>
       </c>
@@ -8883,7 +8742,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -8896,7 +8755,6 @@
       <c r="D37" t="s">
         <v>53</v>
       </c>
-      <c r="E37" t="s"/>
       <c r="F37" t="s">
         <v>665</v>
       </c>
@@ -8981,7 +8839,6 @@
       <c r="AG37" t="s">
         <v>76</v>
       </c>
-      <c r="AH37" t="s"/>
       <c r="AI37" t="s">
         <v>627</v>
       </c>
@@ -8994,11 +8851,9 @@
       <c r="AL37" t="s">
         <v>79</v>
       </c>
-      <c r="AM37" t="s"/>
       <c r="AN37" t="s">
         <v>80</v>
       </c>
-      <c r="AO37" t="s"/>
       <c r="AP37" t="s">
         <v>676</v>
       </c>
@@ -9027,7 +8882,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -9040,7 +8895,6 @@
       <c r="D38" t="s">
         <v>53</v>
       </c>
-      <c r="E38" t="s"/>
       <c r="F38" t="s">
         <v>681</v>
       </c>
@@ -9125,7 +8979,6 @@
       <c r="AG38" t="s">
         <v>76</v>
       </c>
-      <c r="AH38" t="s"/>
       <c r="AI38" t="s">
         <v>65</v>
       </c>
@@ -9138,11 +8991,9 @@
       <c r="AL38" t="s">
         <v>79</v>
       </c>
-      <c r="AM38" t="s"/>
       <c r="AN38" t="s">
         <v>80</v>
       </c>
-      <c r="AO38" t="s"/>
       <c r="AP38" t="s">
         <v>693</v>
       </c>
@@ -9171,7 +9022,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -9184,7 +9035,6 @@
       <c r="D39" t="s">
         <v>53</v>
       </c>
-      <c r="E39" t="s"/>
       <c r="F39" t="s">
         <v>698</v>
       </c>
@@ -9269,7 +9119,6 @@
       <c r="AG39" t="s">
         <v>76</v>
       </c>
-      <c r="AH39" t="s"/>
       <c r="AI39" t="s">
         <v>65</v>
       </c>
@@ -9282,11 +9131,9 @@
       <c r="AL39" t="s">
         <v>79</v>
       </c>
-      <c r="AM39" t="s"/>
       <c r="AN39" t="s">
         <v>80</v>
       </c>
-      <c r="AO39" t="s"/>
       <c r="AP39" t="s">
         <v>709</v>
       </c>
@@ -9315,7 +9162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -9328,7 +9175,6 @@
       <c r="D40" t="s">
         <v>53</v>
       </c>
-      <c r="E40" t="s"/>
       <c r="F40" t="s">
         <v>713</v>
       </c>
@@ -9413,7 +9259,6 @@
       <c r="AG40" t="s">
         <v>76</v>
       </c>
-      <c r="AH40" t="s"/>
       <c r="AI40" t="s">
         <v>65</v>
       </c>
@@ -9426,11 +9271,9 @@
       <c r="AL40" t="s">
         <v>79</v>
       </c>
-      <c r="AM40" t="s"/>
       <c r="AN40" t="s">
         <v>80</v>
       </c>
-      <c r="AO40" t="s"/>
       <c r="AP40" t="s">
         <v>724</v>
       </c>
@@ -9459,7 +9302,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -9472,7 +9315,6 @@
       <c r="D41" t="s">
         <v>53</v>
       </c>
-      <c r="E41" t="s"/>
       <c r="F41" t="s">
         <v>729</v>
       </c>
@@ -9557,7 +9399,6 @@
       <c r="AG41" t="s">
         <v>76</v>
       </c>
-      <c r="AH41" t="s"/>
       <c r="AI41" t="s">
         <v>65</v>
       </c>
@@ -9570,11 +9411,9 @@
       <c r="AL41" t="s">
         <v>79</v>
       </c>
-      <c r="AM41" t="s"/>
       <c r="AN41" t="s">
         <v>80</v>
       </c>
-      <c r="AO41" t="s"/>
       <c r="AP41" t="s">
         <v>741</v>
       </c>
@@ -9603,7 +9442,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -9616,7 +9455,6 @@
       <c r="D42" t="s">
         <v>53</v>
       </c>
-      <c r="E42" t="s"/>
       <c r="F42" t="s">
         <v>746</v>
       </c>
@@ -9701,7 +9539,6 @@
       <c r="AG42" t="s">
         <v>76</v>
       </c>
-      <c r="AH42" t="s"/>
       <c r="AI42" t="s">
         <v>757</v>
       </c>
@@ -9714,11 +9551,9 @@
       <c r="AL42" t="s">
         <v>79</v>
       </c>
-      <c r="AM42" t="s"/>
       <c r="AN42" t="s">
         <v>80</v>
       </c>
-      <c r="AO42" t="s"/>
       <c r="AP42" t="s">
         <v>758</v>
       </c>
@@ -9747,7 +9582,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -9760,7 +9595,6 @@
       <c r="D43" t="s">
         <v>53</v>
       </c>
-      <c r="E43" t="s"/>
       <c r="F43" t="s">
         <v>763</v>
       </c>
@@ -9845,7 +9679,6 @@
       <c r="AG43" t="s">
         <v>76</v>
       </c>
-      <c r="AH43" t="s"/>
       <c r="AI43" t="s">
         <v>757</v>
       </c>
@@ -9858,11 +9691,9 @@
       <c r="AL43" t="s">
         <v>79</v>
       </c>
-      <c r="AM43" t="s"/>
       <c r="AN43" t="s">
         <v>80</v>
       </c>
-      <c r="AO43" t="s"/>
       <c r="AP43" t="s">
         <v>775</v>
       </c>
@@ -9891,7 +9722,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -9904,7 +9735,6 @@
       <c r="D44" t="s">
         <v>53</v>
       </c>
-      <c r="E44" t="s"/>
       <c r="F44" t="s">
         <v>780</v>
       </c>
@@ -9989,7 +9819,6 @@
       <c r="AG44" t="s">
         <v>76</v>
       </c>
-      <c r="AH44" t="s"/>
       <c r="AI44" t="s">
         <v>757</v>
       </c>
@@ -10002,11 +9831,9 @@
       <c r="AL44" t="s">
         <v>79</v>
       </c>
-      <c r="AM44" t="s"/>
       <c r="AN44" t="s">
         <v>80</v>
       </c>
-      <c r="AO44" t="s"/>
       <c r="AP44" t="s">
         <v>792</v>
       </c>
@@ -10035,7 +9862,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -10048,7 +9875,6 @@
       <c r="D45" t="s">
         <v>53</v>
       </c>
-      <c r="E45" t="s"/>
       <c r="F45" t="s">
         <v>796</v>
       </c>
@@ -10133,7 +9959,6 @@
       <c r="AG45" t="s">
         <v>76</v>
       </c>
-      <c r="AH45" t="s"/>
       <c r="AI45" t="s">
         <v>757</v>
       </c>
@@ -10146,11 +9971,9 @@
       <c r="AL45" t="s">
         <v>79</v>
       </c>
-      <c r="AM45" t="s"/>
       <c r="AN45" t="s">
         <v>80</v>
       </c>
-      <c r="AO45" t="s"/>
       <c r="AP45" t="s">
         <v>808</v>
       </c>
@@ -10179,7 +10002,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:50">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -10192,7 +10015,6 @@
       <c r="D46" t="s">
         <v>53</v>
       </c>
-      <c r="E46" t="s"/>
       <c r="F46" t="s">
         <v>813</v>
       </c>
@@ -10277,7 +10099,6 @@
       <c r="AG46" t="s">
         <v>76</v>
       </c>
-      <c r="AH46" t="s"/>
       <c r="AI46" t="s">
         <v>823</v>
       </c>
@@ -10290,11 +10111,9 @@
       <c r="AL46" t="s">
         <v>79</v>
       </c>
-      <c r="AM46" t="s"/>
       <c r="AN46" t="s">
         <v>80</v>
       </c>
-      <c r="AO46" t="s"/>
       <c r="AP46" t="s">
         <v>824</v>
       </c>
@@ -10323,7 +10142,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:50">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -10336,7 +10155,6 @@
       <c r="D47" t="s">
         <v>53</v>
       </c>
-      <c r="E47" t="s"/>
       <c r="F47" t="s">
         <v>828</v>
       </c>
@@ -10382,10 +10200,6 @@
       <c r="T47" t="s">
         <v>66</v>
       </c>
-      <c r="U47" t="s"/>
-      <c r="V47" t="s"/>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
       <c r="Y47" t="s">
         <v>831</v>
       </c>
@@ -10413,7 +10227,6 @@
       <c r="AG47" t="s">
         <v>95</v>
       </c>
-      <c r="AH47" t="s"/>
       <c r="AI47" t="s">
         <v>823</v>
       </c>
@@ -10426,11 +10239,9 @@
       <c r="AL47" t="s">
         <v>79</v>
       </c>
-      <c r="AM47" t="s"/>
       <c r="AN47" t="s">
         <v>80</v>
       </c>
-      <c r="AO47" t="s"/>
       <c r="AP47" t="s">
         <v>837</v>
       </c>
@@ -10459,7 +10270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:50">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -10472,7 +10283,6 @@
       <c r="D48" t="s">
         <v>53</v>
       </c>
-      <c r="E48" t="s"/>
       <c r="F48" t="s">
         <v>842</v>
       </c>
@@ -10557,7 +10367,6 @@
       <c r="AG48" t="s">
         <v>76</v>
       </c>
-      <c r="AH48" t="s"/>
       <c r="AI48" t="s">
         <v>823</v>
       </c>
@@ -10570,11 +10379,9 @@
       <c r="AL48" t="s">
         <v>79</v>
       </c>
-      <c r="AM48" t="s"/>
       <c r="AN48" t="s">
         <v>80</v>
       </c>
-      <c r="AO48" t="s"/>
       <c r="AP48" t="s">
         <v>852</v>
       </c>
@@ -10603,7 +10410,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:50">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -10616,7 +10423,6 @@
       <c r="D49" t="s">
         <v>53</v>
       </c>
-      <c r="E49" t="s"/>
       <c r="F49" t="s">
         <v>857</v>
       </c>
@@ -10701,7 +10507,6 @@
       <c r="AG49" t="s">
         <v>76</v>
       </c>
-      <c r="AH49" t="s"/>
       <c r="AI49" t="s">
         <v>823</v>
       </c>
@@ -10714,11 +10519,9 @@
       <c r="AL49" t="s">
         <v>79</v>
       </c>
-      <c r="AM49" t="s"/>
       <c r="AN49" t="s">
         <v>80</v>
       </c>
-      <c r="AO49" t="s"/>
       <c r="AP49" t="s">
         <v>867</v>
       </c>
@@ -10747,7 +10550,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:50">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -10760,7 +10563,6 @@
       <c r="D50" t="s">
         <v>53</v>
       </c>
-      <c r="E50" t="s"/>
       <c r="F50" t="s">
         <v>871</v>
       </c>
@@ -10818,10 +10620,6 @@
       <c r="X50" t="s">
         <v>876</v>
       </c>
-      <c r="Y50" t="s"/>
-      <c r="Z50" t="s"/>
-      <c r="AA50" t="s"/>
-      <c r="AB50" t="s"/>
       <c r="AC50" t="s">
         <v>877</v>
       </c>
@@ -10837,7 +10635,6 @@
       <c r="AG50" t="s">
         <v>95</v>
       </c>
-      <c r="AH50" t="s"/>
       <c r="AI50" t="s">
         <v>880</v>
       </c>
@@ -10850,11 +10647,9 @@
       <c r="AL50" t="s">
         <v>79</v>
       </c>
-      <c r="AM50" t="s"/>
       <c r="AN50" t="s">
         <v>80</v>
       </c>
-      <c r="AO50" t="s"/>
       <c r="AP50" t="s">
         <v>881</v>
       </c>
@@ -10883,7 +10678,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:50">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -10896,7 +10691,6 @@
       <c r="D51" t="s">
         <v>53</v>
       </c>
-      <c r="E51" t="s"/>
       <c r="F51" t="s">
         <v>885</v>
       </c>
@@ -10981,7 +10775,6 @@
       <c r="AG51" t="s">
         <v>76</v>
       </c>
-      <c r="AH51" t="s"/>
       <c r="AI51" t="s">
         <v>880</v>
       </c>
@@ -10994,11 +10787,9 @@
       <c r="AL51" t="s">
         <v>79</v>
       </c>
-      <c r="AM51" t="s"/>
       <c r="AN51" t="s">
         <v>80</v>
       </c>
-      <c r="AO51" t="s"/>
       <c r="AP51" t="s">
         <v>897</v>
       </c>
@@ -11027,7 +10818,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:50">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -11040,7 +10831,6 @@
       <c r="D52" t="s">
         <v>53</v>
       </c>
-      <c r="E52" t="s"/>
       <c r="F52" t="s">
         <v>901</v>
       </c>
@@ -11125,7 +10915,6 @@
       <c r="AG52" t="s">
         <v>76</v>
       </c>
-      <c r="AH52" t="s"/>
       <c r="AI52" t="s">
         <v>880</v>
       </c>
@@ -11138,11 +10927,9 @@
       <c r="AL52" t="s">
         <v>79</v>
       </c>
-      <c r="AM52" t="s"/>
       <c r="AN52" t="s">
         <v>80</v>
       </c>
-      <c r="AO52" t="s"/>
       <c r="AP52" t="s">
         <v>912</v>
       </c>
@@ -11171,7 +10958,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:50">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>137</v>
       </c>
@@ -11184,7 +10971,6 @@
       <c r="D53" t="s">
         <v>53</v>
       </c>
-      <c r="E53" t="s"/>
       <c r="F53" t="s">
         <v>916</v>
       </c>
@@ -11269,7 +11055,6 @@
       <c r="AG53" t="s">
         <v>76</v>
       </c>
-      <c r="AH53" t="s"/>
       <c r="AI53" t="s">
         <v>880</v>
       </c>
@@ -11282,11 +11067,9 @@
       <c r="AL53" t="s">
         <v>79</v>
       </c>
-      <c r="AM53" t="s"/>
       <c r="AN53" t="s">
         <v>80</v>
       </c>
-      <c r="AO53" t="s"/>
       <c r="AP53" t="s">
         <v>926</v>
       </c>
@@ -11315,7 +11098,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:50">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -11328,7 +11111,6 @@
       <c r="D54" t="s">
         <v>53</v>
       </c>
-      <c r="E54" t="s"/>
       <c r="F54" t="s">
         <v>930</v>
       </c>
@@ -11413,7 +11195,6 @@
       <c r="AG54" t="s">
         <v>76</v>
       </c>
-      <c r="AH54" t="s"/>
       <c r="AI54" t="s">
         <v>941</v>
       </c>
@@ -11426,11 +11207,9 @@
       <c r="AL54" t="s">
         <v>79</v>
       </c>
-      <c r="AM54" t="s"/>
       <c r="AN54" t="s">
         <v>80</v>
       </c>
-      <c r="AO54" t="s"/>
       <c r="AP54" t="s">
         <v>942</v>
       </c>
@@ -11459,7 +11238,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:50">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -11472,7 +11251,6 @@
       <c r="D55" t="s">
         <v>53</v>
       </c>
-      <c r="E55" t="s"/>
       <c r="F55" t="s">
         <v>946</v>
       </c>
@@ -11530,10 +11308,6 @@
       <c r="X55" t="s">
         <v>950</v>
       </c>
-      <c r="Y55" t="s"/>
-      <c r="Z55" t="s"/>
-      <c r="AA55" t="s"/>
-      <c r="AB55" t="s"/>
       <c r="AC55" t="s">
         <v>635</v>
       </c>
@@ -11549,7 +11323,6 @@
       <c r="AG55" t="s">
         <v>95</v>
       </c>
-      <c r="AH55" t="s"/>
       <c r="AI55" t="s">
         <v>941</v>
       </c>
@@ -11562,11 +11335,9 @@
       <c r="AL55" t="s">
         <v>79</v>
       </c>
-      <c r="AM55" t="s"/>
       <c r="AN55" t="s">
         <v>80</v>
       </c>
-      <c r="AO55" t="s"/>
       <c r="AP55" t="s">
         <v>393</v>
       </c>
@@ -11595,7 +11366,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:50">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -11608,7 +11379,6 @@
       <c r="D56" t="s">
         <v>53</v>
       </c>
-      <c r="E56" t="s"/>
       <c r="F56" t="s">
         <v>957</v>
       </c>
@@ -11693,7 +11463,6 @@
       <c r="AG56" t="s">
         <v>76</v>
       </c>
-      <c r="AH56" t="s"/>
       <c r="AI56" t="s">
         <v>941</v>
       </c>
@@ -11706,11 +11475,9 @@
       <c r="AL56" t="s">
         <v>79</v>
       </c>
-      <c r="AM56" t="s"/>
       <c r="AN56" t="s">
         <v>80</v>
       </c>
-      <c r="AO56" t="s"/>
       <c r="AP56" t="s">
         <v>617</v>
       </c>
@@ -11739,7 +11506,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:50">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -11752,7 +11519,6 @@
       <c r="D57" t="s">
         <v>53</v>
       </c>
-      <c r="E57" t="s"/>
       <c r="F57" t="s">
         <v>970</v>
       </c>
@@ -11837,7 +11603,6 @@
       <c r="AG57" t="s">
         <v>76</v>
       </c>
-      <c r="AH57" t="s"/>
       <c r="AI57" t="s">
         <v>941</v>
       </c>
@@ -11850,11 +11615,9 @@
       <c r="AL57" t="s">
         <v>79</v>
       </c>
-      <c r="AM57" t="s"/>
       <c r="AN57" t="s">
         <v>80</v>
       </c>
-      <c r="AO57" t="s"/>
       <c r="AP57" t="s">
         <v>982</v>
       </c>
@@ -11883,7 +11646,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:50">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -11896,7 +11659,6 @@
       <c r="D58" t="s">
         <v>53</v>
       </c>
-      <c r="E58" t="s"/>
       <c r="F58" t="s">
         <v>986</v>
       </c>
@@ -11981,7 +11743,6 @@
       <c r="AG58" t="s">
         <v>76</v>
       </c>
-      <c r="AH58" t="s"/>
       <c r="AI58" t="s">
         <v>998</v>
       </c>
@@ -11994,11 +11755,9 @@
       <c r="AL58" t="s">
         <v>79</v>
       </c>
-      <c r="AM58" t="s"/>
       <c r="AN58" t="s">
         <v>80</v>
       </c>
-      <c r="AO58" t="s"/>
       <c r="AP58" t="s">
         <v>999</v>
       </c>
@@ -12027,7 +11786,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:50">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -12040,7 +11799,6 @@
       <c r="D59" t="s">
         <v>53</v>
       </c>
-      <c r="E59" t="s"/>
       <c r="F59" t="s">
         <v>1004</v>
       </c>
@@ -12125,7 +11883,6 @@
       <c r="AG59" t="s">
         <v>76</v>
       </c>
-      <c r="AH59" t="s"/>
       <c r="AI59" t="s">
         <v>998</v>
       </c>
@@ -12138,11 +11895,9 @@
       <c r="AL59" t="s">
         <v>79</v>
       </c>
-      <c r="AM59" t="s"/>
       <c r="AN59" t="s">
         <v>80</v>
       </c>
-      <c r="AO59" t="s"/>
       <c r="AP59" t="s">
         <v>1016</v>
       </c>
@@ -12171,7 +11926,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:50">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -12184,7 +11939,6 @@
       <c r="D60" t="s">
         <v>53</v>
       </c>
-      <c r="E60" t="s"/>
       <c r="F60" t="s">
         <v>1021</v>
       </c>
@@ -12269,7 +12023,6 @@
       <c r="AG60" t="s">
         <v>76</v>
       </c>
-      <c r="AH60" t="s"/>
       <c r="AI60" t="s">
         <v>998</v>
       </c>
@@ -12282,11 +12035,9 @@
       <c r="AL60" t="s">
         <v>79</v>
       </c>
-      <c r="AM60" t="s"/>
       <c r="AN60" t="s">
         <v>80</v>
       </c>
-      <c r="AO60" t="s"/>
       <c r="AP60" t="s">
         <v>1033</v>
       </c>
@@ -12315,7 +12066,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:50">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -12328,7 +12079,6 @@
       <c r="D61" t="s">
         <v>53</v>
       </c>
-      <c r="E61" t="s"/>
       <c r="F61" t="s">
         <v>1038</v>
       </c>
@@ -12413,7 +12163,6 @@
       <c r="AG61" t="s">
         <v>76</v>
       </c>
-      <c r="AH61" t="s"/>
       <c r="AI61" t="s">
         <v>998</v>
       </c>
@@ -12426,11 +12175,9 @@
       <c r="AL61" t="s">
         <v>79</v>
       </c>
-      <c r="AM61" t="s"/>
       <c r="AN61" t="s">
         <v>80</v>
       </c>
-      <c r="AO61" t="s"/>
       <c r="AP61" t="s">
         <v>1050</v>
       </c>
@@ -12459,7 +12206,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:50">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -12472,7 +12219,6 @@
       <c r="D62" t="s">
         <v>53</v>
       </c>
-      <c r="E62" t="s"/>
       <c r="F62" t="s">
         <v>1055</v>
       </c>
@@ -12557,7 +12303,6 @@
       <c r="AG62" t="s">
         <v>76</v>
       </c>
-      <c r="AH62" t="s"/>
       <c r="AI62" t="s">
         <v>1064</v>
       </c>
@@ -12570,11 +12315,9 @@
       <c r="AL62" t="s">
         <v>79</v>
       </c>
-      <c r="AM62" t="s"/>
       <c r="AN62" t="s">
         <v>80</v>
       </c>
-      <c r="AO62" t="s"/>
       <c r="AP62" t="s">
         <v>1065</v>
       </c>
@@ -12603,7 +12346,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:50">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -12616,7 +12359,6 @@
       <c r="D63" t="s">
         <v>53</v>
       </c>
-      <c r="E63" t="s"/>
       <c r="F63" t="s">
         <v>1069</v>
       </c>
@@ -12701,7 +12443,6 @@
       <c r="AG63" t="s">
         <v>76</v>
       </c>
-      <c r="AH63" t="s"/>
       <c r="AI63" t="s">
         <v>1064</v>
       </c>
@@ -12714,11 +12455,9 @@
       <c r="AL63" t="s">
         <v>79</v>
       </c>
-      <c r="AM63" t="s"/>
       <c r="AN63" t="s">
         <v>80</v>
       </c>
-      <c r="AO63" t="s"/>
       <c r="AP63" t="s">
         <v>1080</v>
       </c>
@@ -12747,7 +12486,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:50">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -12760,7 +12499,6 @@
       <c r="D64" t="s">
         <v>53</v>
       </c>
-      <c r="E64" t="s"/>
       <c r="F64" t="s">
         <v>1085</v>
       </c>
@@ -12845,7 +12583,6 @@
       <c r="AG64" t="s">
         <v>76</v>
       </c>
-      <c r="AH64" t="s"/>
       <c r="AI64" t="s">
         <v>1064</v>
       </c>
@@ -12858,11 +12595,9 @@
       <c r="AL64" t="s">
         <v>79</v>
       </c>
-      <c r="AM64" t="s"/>
       <c r="AN64" t="s">
         <v>80</v>
       </c>
-      <c r="AO64" t="s"/>
       <c r="AP64" t="s">
         <v>1096</v>
       </c>
@@ -12891,7 +12626,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:50">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -12904,7 +12639,6 @@
       <c r="D65" t="s">
         <v>53</v>
       </c>
-      <c r="E65" t="s"/>
       <c r="F65" t="s">
         <v>1099</v>
       </c>
@@ -12989,7 +12723,6 @@
       <c r="AG65" t="s">
         <v>76</v>
       </c>
-      <c r="AH65" t="s"/>
       <c r="AI65" t="s">
         <v>1064</v>
       </c>
@@ -13002,11 +12735,9 @@
       <c r="AL65" t="s">
         <v>79</v>
       </c>
-      <c r="AM65" t="s"/>
       <c r="AN65" t="s">
         <v>80</v>
       </c>
-      <c r="AO65" t="s"/>
       <c r="AP65" t="s">
         <v>1110</v>
       </c>
@@ -13036,850 +12767,4557 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" t="s">
+        <v>168</v>
+      </c>
+      <c r="N4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O4" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" t="s">
+        <v>237</v>
+      </c>
+      <c r="J5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M5" t="s">
+        <v>235</v>
+      </c>
+      <c r="N5" t="s">
+        <v>238</v>
+      </c>
+      <c r="O5" t="s">
+        <v>229</v>
+      </c>
+      <c r="P5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J6" t="s">
+        <v>305</v>
+      </c>
+      <c r="K6" t="s">
+        <v>309</v>
+      </c>
+      <c r="L6" t="s">
+        <v>297</v>
+      </c>
+      <c r="M6" t="s">
+        <v>300</v>
+      </c>
+      <c r="N6" t="s">
+        <v>303</v>
+      </c>
+      <c r="O6" t="s">
+        <v>294</v>
+      </c>
+      <c r="P6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G7" t="s">
+        <v>371</v>
+      </c>
+      <c r="I7" t="s">
+        <v>365</v>
+      </c>
+      <c r="J7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K7" t="s">
+        <v>373</v>
+      </c>
+      <c r="M7" t="s">
+        <v>363</v>
+      </c>
+      <c r="N7" t="s">
+        <v>366</v>
+      </c>
+      <c r="O7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" t="s">
+        <v>429</v>
+      </c>
+      <c r="F8" t="s">
+        <v>432</v>
+      </c>
+      <c r="G8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H8" t="s">
+        <v>426</v>
+      </c>
+      <c r="I8" t="s">
+        <v>428</v>
+      </c>
+      <c r="J8" t="s">
+        <v>430</v>
+      </c>
+      <c r="K8" t="s">
+        <v>435</v>
+      </c>
+      <c r="L8" t="s">
+        <v>424</v>
+      </c>
+      <c r="M8" t="s">
+        <v>424</v>
+      </c>
+      <c r="N8" t="s">
+        <v>424</v>
+      </c>
+      <c r="O8" t="s">
+        <v>424</v>
+      </c>
+      <c r="P8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" t="s">
+        <v>490</v>
+      </c>
+      <c r="D9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F9" t="s">
+        <v>496</v>
+      </c>
+      <c r="G9" t="s">
+        <v>497</v>
+      </c>
+      <c r="H9" t="s">
+        <v>491</v>
+      </c>
+      <c r="I9" t="s">
+        <v>494</v>
+      </c>
+      <c r="K9" t="s">
+        <v>499</v>
+      </c>
+      <c r="L9" t="s">
+        <v>489</v>
+      </c>
+      <c r="M9" t="s">
+        <v>492</v>
+      </c>
+      <c r="O9" t="s">
+        <v>486</v>
+      </c>
+      <c r="P9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D10" t="s">
+        <v>555</v>
+      </c>
+      <c r="E10" t="s">
+        <v>558</v>
+      </c>
+      <c r="F10" t="s">
+        <v>561</v>
+      </c>
+      <c r="G10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H10" t="s">
+        <v>553</v>
+      </c>
+      <c r="I10" t="s">
+        <v>556</v>
+      </c>
+      <c r="J10" t="s">
+        <v>559</v>
+      </c>
+      <c r="K10" t="s">
+        <v>563</v>
+      </c>
+      <c r="L10" t="s">
+        <v>551</v>
+      </c>
+      <c r="M10" t="s">
+        <v>554</v>
+      </c>
+      <c r="N10" t="s">
+        <v>557</v>
+      </c>
+      <c r="O10" t="s">
+        <v>549</v>
+      </c>
+      <c r="P10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>614</v>
+      </c>
+      <c r="C11" t="s">
+        <v>619</v>
+      </c>
+      <c r="D11" t="s">
+        <v>622</v>
+      </c>
+      <c r="E11" t="s">
+        <v>625</v>
+      </c>
+      <c r="F11" t="s">
+        <v>628</v>
+      </c>
+      <c r="G11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H11" t="s">
+        <v>620</v>
+      </c>
+      <c r="I11" t="s">
+        <v>623</v>
+      </c>
+      <c r="J11" t="s">
+        <v>626</v>
+      </c>
+      <c r="K11" t="s">
+        <v>631</v>
+      </c>
+      <c r="L11" t="s">
+        <v>618</v>
+      </c>
+      <c r="M11" t="s">
+        <v>621</v>
+      </c>
+      <c r="N11" t="s">
+        <v>624</v>
+      </c>
+      <c r="O11" t="s">
+        <v>615</v>
+      </c>
+      <c r="P11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>680</v>
+      </c>
+      <c r="C12" t="s">
+        <v>685</v>
+      </c>
+      <c r="D12" t="s">
+        <v>688</v>
+      </c>
+      <c r="E12" t="s">
+        <v>691</v>
+      </c>
+      <c r="F12" t="s">
+        <v>693</v>
+      </c>
+      <c r="G12" t="s">
+        <v>694</v>
+      </c>
+      <c r="H12" t="s">
+        <v>686</v>
+      </c>
+      <c r="I12" t="s">
+        <v>689</v>
+      </c>
+      <c r="J12" t="s">
+        <v>692</v>
+      </c>
+      <c r="K12" t="s">
+        <v>696</v>
+      </c>
+      <c r="L12" t="s">
+        <v>684</v>
+      </c>
+      <c r="M12" t="s">
+        <v>687</v>
+      </c>
+      <c r="N12" t="s">
+        <v>690</v>
+      </c>
+      <c r="O12" t="s">
+        <v>681</v>
+      </c>
+      <c r="P12" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>745</v>
+      </c>
+      <c r="C13" t="s">
+        <v>749</v>
+      </c>
+      <c r="D13" t="s">
+        <v>752</v>
+      </c>
+      <c r="E13" t="s">
+        <v>755</v>
+      </c>
+      <c r="F13" t="s">
+        <v>758</v>
+      </c>
+      <c r="G13" t="s">
+        <v>759</v>
+      </c>
+      <c r="H13" t="s">
+        <v>750</v>
+      </c>
+      <c r="I13" t="s">
+        <v>753</v>
+      </c>
+      <c r="J13" t="s">
+        <v>756</v>
+      </c>
+      <c r="K13" t="s">
+        <v>761</v>
+      </c>
+      <c r="L13" t="s">
+        <v>748</v>
+      </c>
+      <c r="M13" t="s">
+        <v>751</v>
+      </c>
+      <c r="N13" t="s">
+        <v>754</v>
+      </c>
+      <c r="O13" t="s">
+        <v>746</v>
+      </c>
+      <c r="P13" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>812</v>
+      </c>
+      <c r="C14" t="s">
+        <v>816</v>
+      </c>
+      <c r="D14" t="s">
+        <v>818</v>
+      </c>
+      <c r="E14" t="s">
+        <v>821</v>
+      </c>
+      <c r="F14" t="s">
+        <v>824</v>
+      </c>
+      <c r="G14" t="s">
+        <v>825</v>
+      </c>
+      <c r="H14" t="s">
+        <v>817</v>
+      </c>
+      <c r="I14" t="s">
+        <v>819</v>
+      </c>
+      <c r="J14" t="s">
+        <v>822</v>
+      </c>
+      <c r="K14" t="s">
+        <v>826</v>
+      </c>
+      <c r="L14" t="s">
+        <v>815</v>
+      </c>
+      <c r="M14" t="s">
+        <v>266</v>
+      </c>
+      <c r="N14" t="s">
+        <v>820</v>
+      </c>
+      <c r="O14" t="s">
+        <v>813</v>
+      </c>
+      <c r="P14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" t="s">
+        <v>875</v>
+      </c>
+      <c r="E15" t="s">
+        <v>878</v>
+      </c>
+      <c r="F15" t="s">
+        <v>881</v>
+      </c>
+      <c r="G15" t="s">
+        <v>882</v>
+      </c>
+      <c r="H15" t="s">
+        <v>876</v>
+      </c>
+      <c r="J15" t="s">
+        <v>879</v>
+      </c>
+      <c r="K15" t="s">
+        <v>884</v>
+      </c>
+      <c r="L15" t="s">
+        <v>874</v>
+      </c>
+      <c r="N15" t="s">
+        <v>877</v>
+      </c>
+      <c r="O15" t="s">
+        <v>871</v>
+      </c>
+      <c r="P15" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>812</v>
+      </c>
+      <c r="C16" t="s">
+        <v>934</v>
+      </c>
+      <c r="D16" t="s">
+        <v>852</v>
+      </c>
+      <c r="E16" t="s">
+        <v>939</v>
+      </c>
+      <c r="F16" t="s">
+        <v>942</v>
+      </c>
+      <c r="G16" t="s">
+        <v>943</v>
+      </c>
+      <c r="H16" t="s">
+        <v>935</v>
+      </c>
+      <c r="I16" t="s">
+        <v>937</v>
+      </c>
+      <c r="J16" t="s">
+        <v>940</v>
+      </c>
+      <c r="K16" t="s">
+        <v>944</v>
+      </c>
+      <c r="L16" t="s">
+        <v>933</v>
+      </c>
+      <c r="M16" t="s">
+        <v>936</v>
+      </c>
+      <c r="N16" t="s">
+        <v>938</v>
+      </c>
+      <c r="O16" t="s">
+        <v>930</v>
+      </c>
+      <c r="P16" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>985</v>
+      </c>
+      <c r="C17" t="s">
+        <v>990</v>
+      </c>
+      <c r="D17" t="s">
+        <v>993</v>
+      </c>
+      <c r="E17" t="s">
+        <v>996</v>
+      </c>
+      <c r="F17" t="s">
+        <v>999</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>991</v>
+      </c>
+      <c r="I17" t="s">
+        <v>994</v>
+      </c>
+      <c r="J17" t="s">
+        <v>997</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L17" t="s">
+        <v>989</v>
+      </c>
+      <c r="M17" t="s">
+        <v>992</v>
+      </c>
+      <c r="N17" t="s">
+        <v>995</v>
+      </c>
+      <c r="O17" t="s">
+        <v>986</v>
+      </c>
+      <c r="P17" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H18" t="s">
+        <v>541</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1061</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" t="s">
+        <v>104</v>
+      </c>
+      <c r="N23" t="s">
+        <v>107</v>
+      </c>
+      <c r="O23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" t="s">
+        <v>185</v>
+      </c>
+      <c r="N24" t="s">
+        <v>188</v>
+      </c>
+      <c r="O24" t="s">
+        <v>179</v>
+      </c>
+      <c r="P24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F25" t="s">
+        <v>257</v>
+      </c>
+      <c r="G25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" t="s">
+        <v>250</v>
+      </c>
+      <c r="I25" t="s">
+        <v>253</v>
+      </c>
+      <c r="J25" t="s">
+        <v>256</v>
+      </c>
+      <c r="K25" t="s">
+        <v>260</v>
+      </c>
+      <c r="L25" t="s">
+        <v>180</v>
+      </c>
+      <c r="M25" t="s">
+        <v>251</v>
+      </c>
+      <c r="N25" t="s">
+        <v>254</v>
+      </c>
+      <c r="O25" t="s">
+        <v>246</v>
+      </c>
+      <c r="P25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>310</v>
+      </c>
+      <c r="C26" t="s">
+        <v>315</v>
+      </c>
+      <c r="D26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E26" t="s">
+        <v>321</v>
+      </c>
+      <c r="F26" t="s">
+        <v>323</v>
+      </c>
+      <c r="G26" t="s">
+        <v>324</v>
+      </c>
+      <c r="H26" t="s">
+        <v>316</v>
+      </c>
+      <c r="I26" t="s">
+        <v>319</v>
+      </c>
+      <c r="J26" t="s">
+        <v>322</v>
+      </c>
+      <c r="K26" t="s">
+        <v>326</v>
+      </c>
+      <c r="L26" t="s">
+        <v>314</v>
+      </c>
+      <c r="M26" t="s">
+        <v>317</v>
+      </c>
+      <c r="N26" t="s">
+        <v>320</v>
+      </c>
+      <c r="O26" t="s">
+        <v>311</v>
+      </c>
+      <c r="P26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D27" t="s">
+        <v>382</v>
+      </c>
+      <c r="E27" t="s">
+        <v>385</v>
+      </c>
+      <c r="F27" t="s">
+        <v>387</v>
+      </c>
+      <c r="G27" t="s">
+        <v>388</v>
+      </c>
+      <c r="H27" t="s">
+        <v>380</v>
+      </c>
+      <c r="I27" t="s">
+        <v>383</v>
+      </c>
+      <c r="J27" t="s">
+        <v>386</v>
+      </c>
+      <c r="K27" t="s">
+        <v>390</v>
+      </c>
+      <c r="L27" t="s">
+        <v>378</v>
+      </c>
+      <c r="M27" t="s">
+        <v>381</v>
+      </c>
+      <c r="N27" t="s">
+        <v>384</v>
+      </c>
+      <c r="O27" t="s">
+        <v>375</v>
+      </c>
+      <c r="P27" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>436</v>
+      </c>
+      <c r="C28" t="s">
+        <v>441</v>
+      </c>
+      <c r="D28" t="s">
+        <v>444</v>
+      </c>
+      <c r="E28" t="s">
+        <v>447</v>
+      </c>
+      <c r="F28" t="s">
+        <v>449</v>
+      </c>
+      <c r="G28" t="s">
+        <v>450</v>
+      </c>
+      <c r="H28" t="s">
+        <v>442</v>
+      </c>
+      <c r="I28" t="s">
+        <v>445</v>
+      </c>
+      <c r="J28" t="s">
+        <v>448</v>
+      </c>
+      <c r="K28" t="s">
+        <v>452</v>
+      </c>
+      <c r="L28" t="s">
+        <v>440</v>
+      </c>
+      <c r="M28" t="s">
+        <v>443</v>
+      </c>
+      <c r="N28" t="s">
+        <v>446</v>
+      </c>
+      <c r="O28" t="s">
+        <v>437</v>
+      </c>
+      <c r="P28" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C29" t="s">
+        <v>505</v>
+      </c>
+      <c r="D29" t="s">
+        <v>508</v>
+      </c>
+      <c r="E29" t="s">
+        <v>511</v>
+      </c>
+      <c r="F29" t="s">
+        <v>513</v>
+      </c>
+      <c r="G29" t="s">
+        <v>514</v>
+      </c>
+      <c r="H29" t="s">
+        <v>506</v>
+      </c>
+      <c r="I29" t="s">
+        <v>509</v>
+      </c>
+      <c r="J29" t="s">
+        <v>512</v>
+      </c>
+      <c r="K29" t="s">
+        <v>516</v>
+      </c>
+      <c r="L29" t="s">
+        <v>504</v>
+      </c>
+      <c r="M29" t="s">
+        <v>507</v>
+      </c>
+      <c r="N29" t="s">
+        <v>510</v>
+      </c>
+      <c r="O29" t="s">
+        <v>501</v>
+      </c>
+      <c r="P29" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>564</v>
+      </c>
+      <c r="C30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D30" t="s">
+        <v>572</v>
+      </c>
+      <c r="E30" t="s">
+        <v>575</v>
+      </c>
+      <c r="F30" t="s">
+        <v>395</v>
+      </c>
+      <c r="G30" t="s">
+        <v>577</v>
+      </c>
+      <c r="H30" t="s">
+        <v>570</v>
+      </c>
+      <c r="I30" t="s">
+        <v>573</v>
+      </c>
+      <c r="J30" t="s">
+        <v>576</v>
+      </c>
+      <c r="K30" t="s">
+        <v>579</v>
+      </c>
+      <c r="L30" t="s">
+        <v>568</v>
+      </c>
+      <c r="M30" t="s">
+        <v>571</v>
+      </c>
+      <c r="N30" t="s">
+        <v>574</v>
+      </c>
+      <c r="O30" t="s">
+        <v>565</v>
+      </c>
+      <c r="P30" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>632</v>
+      </c>
+      <c r="C31" t="s">
+        <v>637</v>
+      </c>
+      <c r="D31" t="s">
+        <v>640</v>
+      </c>
+      <c r="E31" t="s">
+        <v>643</v>
+      </c>
+      <c r="F31" t="s">
+        <v>645</v>
+      </c>
+      <c r="G31" t="s">
+        <v>646</v>
+      </c>
+      <c r="H31" t="s">
+        <v>638</v>
+      </c>
+      <c r="I31" t="s">
+        <v>641</v>
+      </c>
+      <c r="J31" t="s">
+        <v>644</v>
+      </c>
+      <c r="K31" t="s">
+        <v>648</v>
+      </c>
+      <c r="L31" t="s">
+        <v>636</v>
+      </c>
+      <c r="M31" t="s">
+        <v>639</v>
+      </c>
+      <c r="N31" t="s">
+        <v>642</v>
+      </c>
+      <c r="O31" t="s">
+        <v>633</v>
+      </c>
+      <c r="P31" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>697</v>
+      </c>
+      <c r="C32" t="s">
+        <v>576</v>
+      </c>
+      <c r="D32" t="s">
+        <v>704</v>
+      </c>
+      <c r="E32" t="s">
+        <v>707</v>
+      </c>
+      <c r="F32" t="s">
+        <v>709</v>
+      </c>
+      <c r="G32" t="s">
+        <v>710</v>
+      </c>
+      <c r="H32" t="s">
+        <v>702</v>
+      </c>
+      <c r="I32" t="s">
+        <v>705</v>
+      </c>
+      <c r="J32" t="s">
+        <v>708</v>
+      </c>
+      <c r="K32" t="s">
+        <v>712</v>
+      </c>
+      <c r="L32" t="s">
+        <v>701</v>
+      </c>
+      <c r="M32" t="s">
+        <v>703</v>
+      </c>
+      <c r="N32" t="s">
+        <v>706</v>
+      </c>
+      <c r="O32" t="s">
+        <v>698</v>
+      </c>
+      <c r="P32" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>762</v>
+      </c>
+      <c r="C33" t="s">
+        <v>767</v>
+      </c>
+      <c r="D33" t="s">
+        <v>770</v>
+      </c>
+      <c r="E33" t="s">
+        <v>773</v>
+      </c>
+      <c r="F33" t="s">
+        <v>775</v>
+      </c>
+      <c r="G33" t="s">
+        <v>776</v>
+      </c>
+      <c r="H33" t="s">
+        <v>768</v>
+      </c>
+      <c r="I33" t="s">
+        <v>771</v>
+      </c>
+      <c r="J33" t="s">
+        <v>774</v>
+      </c>
+      <c r="K33" t="s">
+        <v>778</v>
+      </c>
+      <c r="L33" t="s">
+        <v>766</v>
+      </c>
+      <c r="M33" t="s">
+        <v>769</v>
+      </c>
+      <c r="N33" t="s">
+        <v>772</v>
+      </c>
+      <c r="O33" t="s">
+        <v>763</v>
+      </c>
+      <c r="P33" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>832</v>
+      </c>
+      <c r="E34" t="s">
+        <v>835</v>
+      </c>
+      <c r="F34" t="s">
+        <v>837</v>
+      </c>
+      <c r="G34" t="s">
+        <v>838</v>
+      </c>
+      <c r="I34" t="s">
+        <v>833</v>
+      </c>
+      <c r="J34" t="s">
+        <v>836</v>
+      </c>
+      <c r="K34" t="s">
+        <v>840</v>
+      </c>
+      <c r="M34" t="s">
+        <v>831</v>
+      </c>
+      <c r="N34" t="s">
+        <v>834</v>
+      </c>
+      <c r="O34" t="s">
+        <v>828</v>
+      </c>
+      <c r="P34" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>889</v>
+      </c>
+      <c r="D35" t="s">
+        <v>892</v>
+      </c>
+      <c r="E35" t="s">
+        <v>895</v>
+      </c>
+      <c r="F35" t="s">
+        <v>897</v>
+      </c>
+      <c r="G35" t="s">
+        <v>898</v>
+      </c>
+      <c r="H35" t="s">
+        <v>890</v>
+      </c>
+      <c r="I35" t="s">
+        <v>893</v>
+      </c>
+      <c r="J35" t="s">
+        <v>896</v>
+      </c>
+      <c r="K35" t="s">
+        <v>900</v>
+      </c>
+      <c r="L35" t="s">
+        <v>888</v>
+      </c>
+      <c r="M35" t="s">
+        <v>891</v>
+      </c>
+      <c r="N35" t="s">
+        <v>894</v>
+      </c>
+      <c r="O35" t="s">
+        <v>885</v>
+      </c>
+      <c r="P35" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>945</v>
+      </c>
+      <c r="C36" t="s">
+        <v>949</v>
+      </c>
+      <c r="E36" t="s">
+        <v>951</v>
+      </c>
+      <c r="F36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G36" t="s">
+        <v>953</v>
+      </c>
+      <c r="H36" t="s">
+        <v>950</v>
+      </c>
+      <c r="J36" t="s">
+        <v>952</v>
+      </c>
+      <c r="K36" t="s">
+        <v>955</v>
+      </c>
+      <c r="L36" t="s">
+        <v>498</v>
+      </c>
+      <c r="N36" t="s">
+        <v>635</v>
+      </c>
+      <c r="O36" t="s">
+        <v>946</v>
+      </c>
+      <c r="P36" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1013</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1083</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1071</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1074</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1077</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1069</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" t="s">
+        <v>48</v>
+      </c>
+      <c r="L42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" t="s">
+        <v>28</v>
+      </c>
+      <c r="O42" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J43" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" t="s">
+        <v>136</v>
+      </c>
+      <c r="L43" t="s">
+        <v>124</v>
+      </c>
+      <c r="M43" t="s">
+        <v>127</v>
+      </c>
+      <c r="N43" t="s">
+        <v>130</v>
+      </c>
+      <c r="O43" t="s">
+        <v>116</v>
+      </c>
+      <c r="P43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" t="s">
+        <v>206</v>
+      </c>
+      <c r="F44" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H44" t="s">
+        <v>201</v>
+      </c>
+      <c r="I44" t="s">
+        <v>204</v>
+      </c>
+      <c r="J44" t="s">
+        <v>207</v>
+      </c>
+      <c r="K44" t="s">
+        <v>211</v>
+      </c>
+      <c r="L44" t="s">
+        <v>199</v>
+      </c>
+      <c r="M44" t="s">
+        <v>202</v>
+      </c>
+      <c r="N44" t="s">
+        <v>205</v>
+      </c>
+      <c r="O44" t="s">
+        <v>196</v>
+      </c>
+      <c r="P44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" t="s">
+        <v>269</v>
+      </c>
+      <c r="E45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" t="s">
+        <v>273</v>
+      </c>
+      <c r="G45" t="s">
+        <v>274</v>
+      </c>
+      <c r="H45" t="s">
+        <v>267</v>
+      </c>
+      <c r="I45" t="s">
+        <v>270</v>
+      </c>
+      <c r="J45" t="s">
+        <v>272</v>
+      </c>
+      <c r="K45" t="s">
+        <v>276</v>
+      </c>
+      <c r="L45" t="s">
+        <v>265</v>
+      </c>
+      <c r="M45" t="s">
+        <v>268</v>
+      </c>
+      <c r="N45" t="s">
+        <v>271</v>
+      </c>
+      <c r="O45" t="s">
+        <v>261</v>
+      </c>
+      <c r="P45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>277</v>
+      </c>
+      <c r="C46" t="s">
+        <v>331</v>
+      </c>
+      <c r="D46" t="s">
+        <v>334</v>
+      </c>
+      <c r="E46" t="s">
+        <v>337</v>
+      </c>
+      <c r="F46" t="s">
+        <v>339</v>
+      </c>
+      <c r="G46" t="s">
+        <v>340</v>
+      </c>
+      <c r="H46" t="s">
+        <v>332</v>
+      </c>
+      <c r="I46" t="s">
+        <v>335</v>
+      </c>
+      <c r="J46" t="s">
+        <v>338</v>
+      </c>
+      <c r="K46" t="s">
+        <v>342</v>
+      </c>
+      <c r="L46" t="s">
+        <v>330</v>
+      </c>
+      <c r="M46" t="s">
+        <v>333</v>
+      </c>
+      <c r="N46" t="s">
+        <v>336</v>
+      </c>
+      <c r="O46" t="s">
+        <v>327</v>
+      </c>
+      <c r="P46" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" t="s">
+        <v>395</v>
+      </c>
+      <c r="D47" t="s">
+        <v>398</v>
+      </c>
+      <c r="E47" t="s">
+        <v>401</v>
+      </c>
+      <c r="F47" t="s">
+        <v>403</v>
+      </c>
+      <c r="G47" t="s">
+        <v>404</v>
+      </c>
+      <c r="H47" t="s">
+        <v>396</v>
+      </c>
+      <c r="I47" t="s">
+        <v>399</v>
+      </c>
+      <c r="J47" t="s">
+        <v>402</v>
+      </c>
+      <c r="K47" t="s">
+        <v>406</v>
+      </c>
+      <c r="L47" t="s">
+        <v>394</v>
+      </c>
+      <c r="M47" t="s">
+        <v>397</v>
+      </c>
+      <c r="N47" t="s">
+        <v>400</v>
+      </c>
+      <c r="O47" t="s">
+        <v>391</v>
+      </c>
+      <c r="P47" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>453</v>
+      </c>
+      <c r="C48" t="s">
+        <v>324</v>
+      </c>
+      <c r="D48" t="s">
+        <v>460</v>
+      </c>
+      <c r="E48" t="s">
+        <v>463</v>
+      </c>
+      <c r="F48" t="s">
+        <v>465</v>
+      </c>
+      <c r="G48" t="s">
+        <v>466</v>
+      </c>
+      <c r="H48" t="s">
+        <v>458</v>
+      </c>
+      <c r="I48" t="s">
+        <v>461</v>
+      </c>
+      <c r="J48" t="s">
+        <v>464</v>
+      </c>
+      <c r="K48" t="s">
+        <v>468</v>
+      </c>
+      <c r="L48" t="s">
+        <v>457</v>
+      </c>
+      <c r="M48" t="s">
+        <v>459</v>
+      </c>
+      <c r="N48" t="s">
+        <v>462</v>
+      </c>
+      <c r="O48" t="s">
+        <v>454</v>
+      </c>
+      <c r="P48" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>517</v>
+      </c>
+      <c r="C49" t="s">
+        <v>522</v>
+      </c>
+      <c r="D49" t="s">
+        <v>525</v>
+      </c>
+      <c r="E49" t="s">
+        <v>528</v>
+      </c>
+      <c r="F49" t="s">
+        <v>530</v>
+      </c>
+      <c r="G49" t="s">
+        <v>531</v>
+      </c>
+      <c r="H49" t="s">
+        <v>523</v>
+      </c>
+      <c r="I49" t="s">
+        <v>526</v>
+      </c>
+      <c r="J49" t="s">
+        <v>529</v>
+      </c>
+      <c r="K49" t="s">
+        <v>533</v>
+      </c>
+      <c r="L49" t="s">
+        <v>521</v>
+      </c>
+      <c r="M49" t="s">
+        <v>524</v>
+      </c>
+      <c r="N49" t="s">
+        <v>527</v>
+      </c>
+      <c r="O49" t="s">
+        <v>518</v>
+      </c>
+      <c r="P49" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>580</v>
+      </c>
+      <c r="C50" t="s">
+        <v>585</v>
+      </c>
+      <c r="D50" t="s">
+        <v>588</v>
+      </c>
+      <c r="E50" t="s">
+        <v>591</v>
+      </c>
+      <c r="F50" t="s">
+        <v>593</v>
+      </c>
+      <c r="G50" t="s">
+        <v>594</v>
+      </c>
+      <c r="H50" t="s">
+        <v>586</v>
+      </c>
+      <c r="I50" t="s">
+        <v>589</v>
+      </c>
+      <c r="J50" t="s">
+        <v>592</v>
+      </c>
+      <c r="K50" t="s">
+        <v>596</v>
+      </c>
+      <c r="L50" t="s">
+        <v>584</v>
+      </c>
+      <c r="M50" t="s">
+        <v>587</v>
+      </c>
+      <c r="N50" t="s">
+        <v>590</v>
+      </c>
+      <c r="O50" t="s">
+        <v>581</v>
+      </c>
+      <c r="P50" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>649</v>
+      </c>
+      <c r="C51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" t="s">
+        <v>655</v>
+      </c>
+      <c r="E51" t="s">
+        <v>658</v>
+      </c>
+      <c r="F51" t="s">
+        <v>660</v>
+      </c>
+      <c r="G51" t="s">
+        <v>661</v>
+      </c>
+      <c r="H51" t="s">
+        <v>653</v>
+      </c>
+      <c r="I51" t="s">
+        <v>656</v>
+      </c>
+      <c r="J51" t="s">
+        <v>659</v>
+      </c>
+      <c r="K51" t="s">
+        <v>663</v>
+      </c>
+      <c r="L51" t="s">
+        <v>652</v>
+      </c>
+      <c r="M51" t="s">
+        <v>654</v>
+      </c>
+      <c r="N51" t="s">
+        <v>657</v>
+      </c>
+      <c r="O51" t="s">
+        <v>223</v>
+      </c>
+      <c r="P51" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>717</v>
+      </c>
+      <c r="D52" t="s">
+        <v>720</v>
+      </c>
+      <c r="E52" t="s">
+        <v>723</v>
+      </c>
+      <c r="F52" t="s">
+        <v>724</v>
+      </c>
+      <c r="G52" t="s">
+        <v>725</v>
+      </c>
+      <c r="H52" t="s">
+        <v>718</v>
+      </c>
+      <c r="I52" t="s">
+        <v>721</v>
+      </c>
+      <c r="J52" t="s">
+        <v>396</v>
+      </c>
+      <c r="K52" t="s">
+        <v>727</v>
+      </c>
+      <c r="L52" t="s">
+        <v>716</v>
+      </c>
+      <c r="M52" t="s">
+        <v>719</v>
+      </c>
+      <c r="N52" t="s">
+        <v>722</v>
+      </c>
+      <c r="O52" t="s">
+        <v>713</v>
+      </c>
+      <c r="P52" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>779</v>
+      </c>
+      <c r="C53" t="s">
+        <v>784</v>
+      </c>
+      <c r="D53" t="s">
+        <v>787</v>
+      </c>
+      <c r="E53" t="s">
+        <v>790</v>
+      </c>
+      <c r="F53" t="s">
+        <v>792</v>
+      </c>
+      <c r="G53" t="s">
+        <v>793</v>
+      </c>
+      <c r="H53" t="s">
+        <v>785</v>
+      </c>
+      <c r="I53" t="s">
+        <v>788</v>
+      </c>
+      <c r="J53" t="s">
+        <v>791</v>
+      </c>
+      <c r="K53" t="s">
+        <v>795</v>
+      </c>
+      <c r="L53" t="s">
+        <v>783</v>
+      </c>
+      <c r="M53" t="s">
+        <v>786</v>
+      </c>
+      <c r="N53" t="s">
+        <v>789</v>
+      </c>
+      <c r="O53" t="s">
+        <v>780</v>
+      </c>
+      <c r="P53" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>841</v>
+      </c>
+      <c r="C54" t="s">
+        <v>846</v>
+      </c>
+      <c r="D54" t="s">
+        <v>849</v>
+      </c>
+      <c r="E54" t="s">
+        <v>851</v>
+      </c>
+      <c r="F54" t="s">
+        <v>852</v>
+      </c>
+      <c r="G54" t="s">
+        <v>853</v>
+      </c>
+      <c r="H54" t="s">
+        <v>847</v>
+      </c>
+      <c r="I54" t="s">
+        <v>850</v>
+      </c>
+      <c r="J54" t="s">
+        <v>822</v>
+      </c>
+      <c r="K54" t="s">
+        <v>855</v>
+      </c>
+      <c r="L54" t="s">
+        <v>845</v>
+      </c>
+      <c r="M54" t="s">
+        <v>848</v>
+      </c>
+      <c r="N54" t="s">
+        <v>471</v>
+      </c>
+      <c r="O54" t="s">
+        <v>842</v>
+      </c>
+      <c r="P54" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>500</v>
+      </c>
+      <c r="C55" t="s">
+        <v>905</v>
+      </c>
+      <c r="D55" t="s">
+        <v>907</v>
+      </c>
+      <c r="E55" t="s">
+        <v>910</v>
+      </c>
+      <c r="F55" t="s">
+        <v>912</v>
+      </c>
+      <c r="G55" t="s">
+        <v>913</v>
+      </c>
+      <c r="H55" t="s">
+        <v>739</v>
+      </c>
+      <c r="I55" t="s">
+        <v>908</v>
+      </c>
+      <c r="J55" t="s">
+        <v>911</v>
+      </c>
+      <c r="K55" t="s">
+        <v>914</v>
+      </c>
+      <c r="L55" t="s">
+        <v>904</v>
+      </c>
+      <c r="M55" t="s">
+        <v>906</v>
+      </c>
+      <c r="N55" t="s">
+        <v>909</v>
+      </c>
+      <c r="O55" t="s">
+        <v>901</v>
+      </c>
+      <c r="P55" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>956</v>
+      </c>
+      <c r="C56" t="s">
+        <v>959</v>
+      </c>
+      <c r="D56" t="s">
+        <v>962</v>
+      </c>
+      <c r="E56" t="s">
+        <v>965</v>
+      </c>
+      <c r="F56" t="s">
+        <v>617</v>
+      </c>
+      <c r="G56" t="s">
+        <v>967</v>
+      </c>
+      <c r="H56" t="s">
+        <v>960</v>
+      </c>
+      <c r="I56" t="s">
+        <v>963</v>
+      </c>
+      <c r="J56" t="s">
+        <v>966</v>
+      </c>
+      <c r="K56" t="s">
+        <v>968</v>
+      </c>
+      <c r="L56" t="s">
+        <v>649</v>
+      </c>
+      <c r="M56" t="s">
+        <v>961</v>
+      </c>
+      <c r="N56" t="s">
+        <v>964</v>
+      </c>
+      <c r="O56" t="s">
+        <v>957</v>
+      </c>
+      <c r="P56" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N57" t="s">
+        <v>1030</v>
+      </c>
+      <c r="O57" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P57" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1087</v>
+      </c>
+      <c r="M58" t="s">
+        <v>1090</v>
+      </c>
+      <c r="N58" t="s">
+        <v>1093</v>
+      </c>
+      <c r="O58" t="s">
+        <v>1085</v>
+      </c>
+      <c r="P58" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" t="s">
+        <v>48</v>
+      </c>
+      <c r="L62" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" t="s">
+        <v>28</v>
+      </c>
+      <c r="O62" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F63" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" t="s">
+        <v>158</v>
+      </c>
+      <c r="H63" t="s">
+        <v>150</v>
+      </c>
+      <c r="I63" t="s">
+        <v>153</v>
+      </c>
+      <c r="J63" t="s">
+        <v>156</v>
+      </c>
+      <c r="K63" t="s">
+        <v>160</v>
+      </c>
+      <c r="L63" t="s">
+        <v>148</v>
+      </c>
+      <c r="M63" t="s">
+        <v>151</v>
+      </c>
+      <c r="N63" t="s">
+        <v>154</v>
+      </c>
+      <c r="O63" t="s">
+        <v>139</v>
+      </c>
+      <c r="P63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" t="s">
+        <v>216</v>
+      </c>
+      <c r="D64" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" t="s">
+        <v>222</v>
+      </c>
+      <c r="F64" t="s">
+        <v>224</v>
+      </c>
+      <c r="G64" t="s">
+        <v>225</v>
+      </c>
+      <c r="H64" t="s">
+        <v>217</v>
+      </c>
+      <c r="I64" t="s">
+        <v>220</v>
+      </c>
+      <c r="J64" t="s">
+        <v>223</v>
+      </c>
+      <c r="K64" t="s">
+        <v>227</v>
+      </c>
+      <c r="L64" t="s">
+        <v>215</v>
+      </c>
+      <c r="M64" t="s">
+        <v>218</v>
+      </c>
+      <c r="N64" t="s">
+        <v>221</v>
+      </c>
+      <c r="O64" t="s">
+        <v>212</v>
+      </c>
+      <c r="P64" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" t="s">
+        <v>282</v>
+      </c>
+      <c r="D65" t="s">
+        <v>285</v>
+      </c>
+      <c r="E65" t="s">
+        <v>287</v>
+      </c>
+      <c r="F65" t="s">
+        <v>289</v>
+      </c>
+      <c r="G65" t="s">
+        <v>290</v>
+      </c>
+      <c r="H65" t="s">
+        <v>283</v>
+      </c>
+      <c r="I65" t="s">
+        <v>254</v>
+      </c>
+      <c r="J65" t="s">
+        <v>288</v>
+      </c>
+      <c r="K65" t="s">
+        <v>292</v>
+      </c>
+      <c r="L65" t="s">
+        <v>281</v>
+      </c>
+      <c r="M65" t="s">
+        <v>284</v>
+      </c>
+      <c r="N65" t="s">
+        <v>286</v>
+      </c>
+      <c r="O65" t="s">
+        <v>278</v>
+      </c>
+      <c r="P65" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>343</v>
+      </c>
+      <c r="C66" t="s">
+        <v>348</v>
+      </c>
+      <c r="D66" t="s">
+        <v>351</v>
+      </c>
+      <c r="E66" t="s">
+        <v>354</v>
+      </c>
+      <c r="F66" t="s">
+        <v>356</v>
+      </c>
+      <c r="G66" t="s">
+        <v>357</v>
+      </c>
+      <c r="H66" t="s">
+        <v>349</v>
+      </c>
+      <c r="I66" t="s">
+        <v>352</v>
+      </c>
+      <c r="J66" t="s">
+        <v>355</v>
+      </c>
+      <c r="K66" t="s">
+        <v>359</v>
+      </c>
+      <c r="L66" t="s">
+        <v>347</v>
+      </c>
+      <c r="M66" t="s">
+        <v>350</v>
+      </c>
+      <c r="N66" t="s">
+        <v>353</v>
+      </c>
+      <c r="O66" t="s">
+        <v>344</v>
+      </c>
+      <c r="P66" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" t="s">
+        <v>411</v>
+      </c>
+      <c r="D67" t="s">
+        <v>414</v>
+      </c>
+      <c r="E67" t="s">
+        <v>417</v>
+      </c>
+      <c r="F67" t="s">
+        <v>419</v>
+      </c>
+      <c r="G67" t="s">
+        <v>420</v>
+      </c>
+      <c r="H67" t="s">
+        <v>412</v>
+      </c>
+      <c r="I67" t="s">
+        <v>415</v>
+      </c>
+      <c r="J67" t="s">
+        <v>418</v>
+      </c>
+      <c r="K67" t="s">
+        <v>422</v>
+      </c>
+      <c r="L67" t="s">
+        <v>410</v>
+      </c>
+      <c r="M67" t="s">
+        <v>413</v>
+      </c>
+      <c r="N67" t="s">
+        <v>416</v>
+      </c>
+      <c r="O67" t="s">
+        <v>407</v>
+      </c>
+      <c r="P67" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>469</v>
+      </c>
+      <c r="C68" t="s">
+        <v>473</v>
+      </c>
+      <c r="D68" t="s">
+        <v>476</v>
+      </c>
+      <c r="E68" t="s">
+        <v>479</v>
+      </c>
+      <c r="F68" t="s">
+        <v>481</v>
+      </c>
+      <c r="G68" t="s">
+        <v>482</v>
+      </c>
+      <c r="H68" t="s">
+        <v>474</v>
+      </c>
+      <c r="I68" t="s">
+        <v>477</v>
+      </c>
+      <c r="J68" t="s">
+        <v>480</v>
+      </c>
+      <c r="K68" t="s">
+        <v>484</v>
+      </c>
+      <c r="L68" t="s">
+        <v>472</v>
+      </c>
+      <c r="M68" t="s">
+        <v>475</v>
+      </c>
+      <c r="N68" t="s">
+        <v>478</v>
+      </c>
+      <c r="O68" t="s">
+        <v>470</v>
+      </c>
+      <c r="P68" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>534</v>
+      </c>
+      <c r="C69" t="s">
+        <v>538</v>
+      </c>
+      <c r="D69" t="s">
+        <v>541</v>
+      </c>
+      <c r="E69" t="s">
+        <v>543</v>
+      </c>
+      <c r="F69" t="s">
+        <v>545</v>
+      </c>
+      <c r="G69" t="s">
+        <v>546</v>
+      </c>
+      <c r="H69" t="s">
+        <v>539</v>
+      </c>
+      <c r="I69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J69" t="s">
+        <v>544</v>
+      </c>
+      <c r="K69" t="s">
+        <v>548</v>
+      </c>
+      <c r="L69" t="s">
+        <v>537</v>
+      </c>
+      <c r="M69" t="s">
+        <v>540</v>
+      </c>
+      <c r="N69" t="s">
+        <v>542</v>
+      </c>
+      <c r="O69" t="s">
+        <v>535</v>
+      </c>
+      <c r="P69" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>597</v>
+      </c>
+      <c r="C70" t="s">
+        <v>602</v>
+      </c>
+      <c r="D70" t="s">
+        <v>605</v>
+      </c>
+      <c r="E70" t="s">
+        <v>608</v>
+      </c>
+      <c r="F70" t="s">
+        <v>610</v>
+      </c>
+      <c r="G70" t="s">
+        <v>611</v>
+      </c>
+      <c r="H70" t="s">
+        <v>603</v>
+      </c>
+      <c r="I70" t="s">
+        <v>606</v>
+      </c>
+      <c r="J70" t="s">
+        <v>609</v>
+      </c>
+      <c r="K70" t="s">
+        <v>613</v>
+      </c>
+      <c r="L70" t="s">
+        <v>601</v>
+      </c>
+      <c r="M70" t="s">
+        <v>604</v>
+      </c>
+      <c r="N70" t="s">
+        <v>607</v>
+      </c>
+      <c r="O70" t="s">
+        <v>598</v>
+      </c>
+      <c r="P70" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>664</v>
+      </c>
+      <c r="C71" t="s">
+        <v>668</v>
+      </c>
+      <c r="D71" t="s">
+        <v>671</v>
+      </c>
+      <c r="E71" t="s">
+        <v>674</v>
+      </c>
+      <c r="F71" t="s">
+        <v>676</v>
+      </c>
+      <c r="G71" t="s">
+        <v>677</v>
+      </c>
+      <c r="H71" t="s">
+        <v>669</v>
+      </c>
+      <c r="I71" t="s">
+        <v>672</v>
+      </c>
+      <c r="J71" t="s">
+        <v>675</v>
+      </c>
+      <c r="K71" t="s">
+        <v>679</v>
+      </c>
+      <c r="L71" t="s">
+        <v>667</v>
+      </c>
+      <c r="M71" t="s">
+        <v>670</v>
+      </c>
+      <c r="N71" t="s">
+        <v>673</v>
+      </c>
+      <c r="O71" t="s">
+        <v>665</v>
+      </c>
+      <c r="P71" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>728</v>
+      </c>
+      <c r="C72" t="s">
+        <v>733</v>
+      </c>
+      <c r="D72" t="s">
+        <v>736</v>
+      </c>
+      <c r="E72" t="s">
+        <v>739</v>
+      </c>
+      <c r="F72" t="s">
+        <v>741</v>
+      </c>
+      <c r="G72" t="s">
+        <v>742</v>
+      </c>
+      <c r="H72" t="s">
+        <v>734</v>
+      </c>
+      <c r="I72" t="s">
+        <v>737</v>
+      </c>
+      <c r="J72" t="s">
+        <v>740</v>
+      </c>
+      <c r="K72" t="s">
+        <v>744</v>
+      </c>
+      <c r="L72" t="s">
+        <v>732</v>
+      </c>
+      <c r="M72" t="s">
+        <v>735</v>
+      </c>
+      <c r="N72" t="s">
+        <v>738</v>
+      </c>
+      <c r="O72" t="s">
+        <v>729</v>
+      </c>
+      <c r="P72" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>682</v>
+      </c>
+      <c r="C73" t="s">
+        <v>800</v>
+      </c>
+      <c r="D73" t="s">
+        <v>803</v>
+      </c>
+      <c r="E73" t="s">
+        <v>806</v>
+      </c>
+      <c r="F73" t="s">
+        <v>808</v>
+      </c>
+      <c r="G73" t="s">
+        <v>809</v>
+      </c>
+      <c r="H73" t="s">
+        <v>801</v>
+      </c>
+      <c r="I73" t="s">
+        <v>804</v>
+      </c>
+      <c r="J73" t="s">
+        <v>807</v>
+      </c>
+      <c r="K73" t="s">
+        <v>811</v>
+      </c>
+      <c r="L73" t="s">
+        <v>799</v>
+      </c>
+      <c r="M73" t="s">
+        <v>802</v>
+      </c>
+      <c r="N73" t="s">
+        <v>805</v>
+      </c>
+      <c r="O73" t="s">
+        <v>796</v>
+      </c>
+      <c r="P73" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>856</v>
+      </c>
+      <c r="C74" t="s">
+        <v>860</v>
+      </c>
+      <c r="D74" t="s">
+        <v>863</v>
+      </c>
+      <c r="E74" t="s">
+        <v>865</v>
+      </c>
+      <c r="F74" t="s">
+        <v>867</v>
+      </c>
+      <c r="G74" t="s">
+        <v>868</v>
+      </c>
+      <c r="H74" t="s">
+        <v>861</v>
+      </c>
+      <c r="I74" t="s">
+        <v>864</v>
+      </c>
+      <c r="J74" t="s">
+        <v>866</v>
+      </c>
+      <c r="K74" t="s">
+        <v>870</v>
+      </c>
+      <c r="L74" t="s">
+        <v>859</v>
+      </c>
+      <c r="M74" t="s">
+        <v>862</v>
+      </c>
+      <c r="N74" t="s">
+        <v>671</v>
+      </c>
+      <c r="O74" t="s">
+        <v>857</v>
+      </c>
+      <c r="P74" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>915</v>
+      </c>
+      <c r="C75" t="s">
+        <v>918</v>
+      </c>
+      <c r="D75" t="s">
+        <v>921</v>
+      </c>
+      <c r="E75" t="s">
+        <v>924</v>
+      </c>
+      <c r="F75" t="s">
+        <v>926</v>
+      </c>
+      <c r="G75" t="s">
+        <v>927</v>
+      </c>
+      <c r="H75" t="s">
+        <v>919</v>
+      </c>
+      <c r="I75" t="s">
+        <v>922</v>
+      </c>
+      <c r="J75" t="s">
+        <v>925</v>
+      </c>
+      <c r="K75" t="s">
+        <v>929</v>
+      </c>
+      <c r="L75" t="s">
+        <v>917</v>
+      </c>
+      <c r="M75" t="s">
+        <v>920</v>
+      </c>
+      <c r="N75" t="s">
+        <v>923</v>
+      </c>
+      <c r="O75" t="s">
+        <v>916</v>
+      </c>
+      <c r="P75" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>969</v>
+      </c>
+      <c r="C76" t="s">
+        <v>974</v>
+      </c>
+      <c r="D76" t="s">
+        <v>977</v>
+      </c>
+      <c r="E76" t="s">
+        <v>980</v>
+      </c>
+      <c r="F76" t="s">
+        <v>982</v>
+      </c>
+      <c r="G76" t="s">
+        <v>983</v>
+      </c>
+      <c r="H76" t="s">
+        <v>975</v>
+      </c>
+      <c r="I76" t="s">
+        <v>978</v>
+      </c>
+      <c r="J76" t="s">
+        <v>981</v>
+      </c>
+      <c r="K76" t="s">
+        <v>584</v>
+      </c>
+      <c r="L76" t="s">
+        <v>973</v>
+      </c>
+      <c r="M76" t="s">
+        <v>976</v>
+      </c>
+      <c r="N76" t="s">
+        <v>979</v>
+      </c>
+      <c r="O76" t="s">
+        <v>970</v>
+      </c>
+      <c r="P76" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M77" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N77" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P77" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>614</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M78" t="s">
+        <v>1104</v>
+      </c>
+      <c r="N78" t="s">
+        <v>1107</v>
+      </c>
+      <c r="O78" t="s">
+        <v>1099</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C10" t="s">
+        <v>554</v>
+      </c>
+      <c r="D10" t="s">
+        <v>557</v>
+      </c>
+      <c r="E10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C11" t="s">
+        <v>621</v>
+      </c>
+      <c r="D11" t="s">
+        <v>624</v>
+      </c>
+      <c r="E11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>684</v>
+      </c>
+      <c r="C12" t="s">
+        <v>687</v>
+      </c>
+      <c r="D12" t="s">
+        <v>690</v>
+      </c>
+      <c r="E12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>748</v>
+      </c>
+      <c r="C13" t="s">
+        <v>751</v>
+      </c>
+      <c r="D13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E13" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>815</v>
+      </c>
+      <c r="C14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" t="s">
+        <v>820</v>
+      </c>
+      <c r="E14" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>874</v>
+      </c>
+      <c r="D15" t="s">
+        <v>877</v>
+      </c>
+      <c r="E15" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>933</v>
+      </c>
+      <c r="C16" t="s">
+        <v>936</v>
+      </c>
+      <c r="D16" t="s">
+        <v>938</v>
+      </c>
+      <c r="E16" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>989</v>
+      </c>
+      <c r="C17" t="s">
+        <v>992</v>
+      </c>
+      <c r="D17" t="s">
+        <v>995</v>
+      </c>
+      <c r="E17" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>1114</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D26" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" t="s">
+        <v>381</v>
+      </c>
+      <c r="D27" t="s">
+        <v>384</v>
+      </c>
+      <c r="E27" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>440</v>
+      </c>
+      <c r="C28" t="s">
+        <v>443</v>
+      </c>
+      <c r="D28" t="s">
+        <v>446</v>
+      </c>
+      <c r="E28" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>504</v>
+      </c>
+      <c r="C29" t="s">
+        <v>507</v>
+      </c>
+      <c r="D29" t="s">
+        <v>510</v>
+      </c>
+      <c r="E29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>568</v>
+      </c>
+      <c r="C30" t="s">
+        <v>571</v>
+      </c>
+      <c r="D30" t="s">
+        <v>574</v>
+      </c>
+      <c r="E30" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>636</v>
+      </c>
+      <c r="C31" t="s">
+        <v>639</v>
+      </c>
+      <c r="D31" t="s">
+        <v>642</v>
+      </c>
+      <c r="E31" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>701</v>
+      </c>
+      <c r="C32" t="s">
+        <v>703</v>
+      </c>
+      <c r="D32" t="s">
+        <v>706</v>
+      </c>
+      <c r="E32" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>766</v>
+      </c>
+      <c r="C33" t="s">
+        <v>769</v>
+      </c>
+      <c r="D33" t="s">
+        <v>772</v>
+      </c>
+      <c r="E33" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>831</v>
+      </c>
+      <c r="D34" t="s">
+        <v>834</v>
+      </c>
+      <c r="E34" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>888</v>
+      </c>
+      <c r="C35" t="s">
+        <v>891</v>
+      </c>
+      <c r="D35" t="s">
+        <v>894</v>
+      </c>
+      <c r="E35" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>498</v>
+      </c>
+      <c r="D36" t="s">
+        <v>635</v>
+      </c>
+      <c r="E36" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>1115</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" t="s">
+        <v>268</v>
+      </c>
+      <c r="D45" t="s">
+        <v>271</v>
+      </c>
+      <c r="E45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>330</v>
+      </c>
+      <c r="C46" t="s">
+        <v>333</v>
+      </c>
+      <c r="D46" t="s">
+        <v>336</v>
+      </c>
+      <c r="E46" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>394</v>
+      </c>
+      <c r="C47" t="s">
+        <v>397</v>
+      </c>
+      <c r="D47" t="s">
+        <v>400</v>
+      </c>
+      <c r="E47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>457</v>
+      </c>
+      <c r="C48" t="s">
+        <v>459</v>
+      </c>
+      <c r="D48" t="s">
+        <v>462</v>
+      </c>
+      <c r="E48" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>521</v>
+      </c>
+      <c r="C49" t="s">
+        <v>524</v>
+      </c>
+      <c r="D49" t="s">
+        <v>527</v>
+      </c>
+      <c r="E49" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>584</v>
+      </c>
+      <c r="C50" t="s">
+        <v>587</v>
+      </c>
+      <c r="D50" t="s">
+        <v>590</v>
+      </c>
+      <c r="E50" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>652</v>
+      </c>
+      <c r="C51" t="s">
+        <v>654</v>
+      </c>
+      <c r="D51" t="s">
+        <v>657</v>
+      </c>
+      <c r="E51" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>716</v>
+      </c>
+      <c r="C52" t="s">
+        <v>719</v>
+      </c>
+      <c r="D52" t="s">
+        <v>722</v>
+      </c>
+      <c r="E52" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>783</v>
+      </c>
+      <c r="C53" t="s">
+        <v>786</v>
+      </c>
+      <c r="D53" t="s">
+        <v>789</v>
+      </c>
+      <c r="E53" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>845</v>
+      </c>
+      <c r="C54" t="s">
+        <v>848</v>
+      </c>
+      <c r="D54" t="s">
+        <v>471</v>
+      </c>
+      <c r="E54" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>904</v>
+      </c>
+      <c r="C55" t="s">
+        <v>906</v>
+      </c>
+      <c r="D55" t="s">
+        <v>909</v>
+      </c>
+      <c r="E55" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>649</v>
+      </c>
+      <c r="C56" t="s">
+        <v>961</v>
+      </c>
+      <c r="D56" t="s">
+        <v>964</v>
+      </c>
+      <c r="E56" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>1116</v>
       </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="C62" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="D62" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>281</v>
+      </c>
+      <c r="C65" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" t="s">
+        <v>286</v>
+      </c>
+      <c r="E65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>347</v>
+      </c>
+      <c r="C66" t="s">
+        <v>350</v>
+      </c>
+      <c r="D66" t="s">
+        <v>353</v>
+      </c>
+      <c r="E66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>5</v>
       </c>
-      <c r="P2" t="s">
+      <c r="B67" t="s">
+        <v>410</v>
+      </c>
+      <c r="C67" t="s">
+        <v>413</v>
+      </c>
+      <c r="D67" t="s">
+        <v>416</v>
+      </c>
+      <c r="E67" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>472</v>
+      </c>
+      <c r="C68" t="s">
+        <v>475</v>
+      </c>
+      <c r="D68" t="s">
+        <v>478</v>
+      </c>
+      <c r="E68" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J4" t="s">
-        <v>166</v>
-      </c>
-      <c r="K4" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M4" t="s">
-        <v>166</v>
-      </c>
-      <c r="N4" t="s">
-        <v>166</v>
-      </c>
-      <c r="O4" t="s">
-        <v>166</v>
-      </c>
-      <c r="P4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H5" t="s">
-        <v>233</v>
-      </c>
-      <c r="I5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J5" t="s">
-        <v>233</v>
-      </c>
-      <c r="K5" t="s">
-        <v>233</v>
-      </c>
-      <c r="L5" t="s">
-        <v>233</v>
-      </c>
-      <c r="M5" t="s">
-        <v>233</v>
-      </c>
-      <c r="N5" t="s">
-        <v>233</v>
-      </c>
-      <c r="O5" t="s">
-        <v>233</v>
-      </c>
-      <c r="P5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H6" t="s">
-        <v>298</v>
-      </c>
-      <c r="I6" t="s">
-        <v>298</v>
-      </c>
-      <c r="J6" t="s">
-        <v>298</v>
-      </c>
-      <c r="K6" t="s">
-        <v>298</v>
-      </c>
-      <c r="L6" t="s">
-        <v>298</v>
-      </c>
-      <c r="M6" t="s">
-        <v>298</v>
-      </c>
-      <c r="N6" t="s">
-        <v>298</v>
-      </c>
-      <c r="O6" t="s">
-        <v>298</v>
-      </c>
-      <c r="P6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C8" t="s">
-        <v>425</v>
-      </c>
-      <c r="D8" t="s">
-        <v>425</v>
-      </c>
-      <c r="E8" t="s">
-        <v>425</v>
-      </c>
-      <c r="F8" t="s">
-        <v>425</v>
-      </c>
-      <c r="G8" t="s">
-        <v>425</v>
-      </c>
-      <c r="H8" t="s">
-        <v>425</v>
-      </c>
-      <c r="I8" t="s">
-        <v>425</v>
-      </c>
-      <c r="J8" t="s">
-        <v>425</v>
-      </c>
-      <c r="K8" t="s">
-        <v>425</v>
-      </c>
-      <c r="L8" t="s">
-        <v>425</v>
-      </c>
-      <c r="M8" t="s">
-        <v>425</v>
-      </c>
-      <c r="N8" t="s">
-        <v>425</v>
-      </c>
-      <c r="O8" t="s">
-        <v>425</v>
-      </c>
-      <c r="P8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C9" t="s">
-        <v>490</v>
-      </c>
-      <c r="D9" t="s">
-        <v>490</v>
-      </c>
-      <c r="E9" t="s">
-        <v>490</v>
-      </c>
-      <c r="F9" t="s">
-        <v>490</v>
-      </c>
-      <c r="G9" t="s">
-        <v>490</v>
-      </c>
-      <c r="H9" t="s">
-        <v>490</v>
-      </c>
-      <c r="I9" t="s">
-        <v>490</v>
-      </c>
-      <c r="J9" t="s">
-        <v>490</v>
-      </c>
-      <c r="K9" t="s">
-        <v>490</v>
-      </c>
-      <c r="L9" t="s">
-        <v>490</v>
-      </c>
-      <c r="M9" t="s">
-        <v>490</v>
-      </c>
-      <c r="N9" t="s">
-        <v>490</v>
-      </c>
-      <c r="O9" t="s">
-        <v>490</v>
-      </c>
-      <c r="P9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="n">
+      <c r="B69" t="s">
+        <v>537</v>
+      </c>
+      <c r="C69" t="s">
+        <v>540</v>
+      </c>
+      <c r="D69" t="s">
+        <v>542</v>
+      </c>
+      <c r="E69" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>469</v>
-      </c>
-      <c r="C10" t="s">
-        <v>552</v>
-      </c>
-      <c r="D10" t="s">
-        <v>552</v>
-      </c>
-      <c r="E10" t="s">
-        <v>552</v>
-      </c>
-      <c r="F10" t="s">
-        <v>552</v>
-      </c>
-      <c r="G10" t="s">
-        <v>552</v>
-      </c>
-      <c r="H10" t="s">
-        <v>552</v>
-      </c>
-      <c r="I10" t="s">
-        <v>552</v>
-      </c>
-      <c r="J10" t="s">
-        <v>552</v>
-      </c>
-      <c r="K10" t="s">
-        <v>552</v>
-      </c>
-      <c r="L10" t="s">
-        <v>552</v>
-      </c>
-      <c r="M10" t="s">
-        <v>552</v>
-      </c>
-      <c r="N10" t="s">
-        <v>552</v>
-      </c>
-      <c r="O10" t="s">
-        <v>552</v>
-      </c>
-      <c r="P10" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="n">
+      <c r="B70" t="s">
+        <v>601</v>
+      </c>
+      <c r="C70" t="s">
+        <v>604</v>
+      </c>
+      <c r="D70" t="s">
+        <v>607</v>
+      </c>
+      <c r="E70" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>614</v>
-      </c>
-      <c r="C11" t="s">
-        <v>619</v>
-      </c>
-      <c r="D11" t="s">
-        <v>619</v>
-      </c>
-      <c r="E11" t="s">
-        <v>619</v>
-      </c>
-      <c r="F11" t="s">
-        <v>619</v>
-      </c>
-      <c r="G11" t="s">
-        <v>619</v>
-      </c>
-      <c r="H11" t="s">
-        <v>619</v>
-      </c>
-      <c r="I11" t="s">
-        <v>619</v>
-      </c>
-      <c r="J11" t="s">
-        <v>619</v>
-      </c>
-      <c r="K11" t="s">
-        <v>619</v>
-      </c>
-      <c r="L11" t="s">
-        <v>619</v>
-      </c>
-      <c r="M11" t="s">
-        <v>619</v>
-      </c>
-      <c r="N11" t="s">
-        <v>619</v>
-      </c>
-      <c r="O11" t="s">
-        <v>619</v>
-      </c>
-      <c r="P11" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="n">
+      <c r="B71" t="s">
+        <v>667</v>
+      </c>
+      <c r="C71" t="s">
+        <v>670</v>
+      </c>
+      <c r="D71" t="s">
+        <v>673</v>
+      </c>
+      <c r="E71" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>680</v>
-      </c>
-      <c r="C12" t="s">
-        <v>685</v>
-      </c>
-      <c r="D12" t="s">
-        <v>685</v>
-      </c>
-      <c r="E12" t="s">
-        <v>685</v>
-      </c>
-      <c r="F12" t="s">
-        <v>685</v>
-      </c>
-      <c r="G12" t="s">
-        <v>685</v>
-      </c>
-      <c r="H12" t="s">
-        <v>685</v>
-      </c>
-      <c r="I12" t="s">
-        <v>685</v>
-      </c>
-      <c r="J12" t="s">
-        <v>685</v>
-      </c>
-      <c r="K12" t="s">
-        <v>685</v>
-      </c>
-      <c r="L12" t="s">
-        <v>685</v>
-      </c>
-      <c r="M12" t="s">
-        <v>685</v>
-      </c>
-      <c r="N12" t="s">
-        <v>685</v>
-      </c>
-      <c r="O12" t="s">
-        <v>685</v>
-      </c>
-      <c r="P12" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="n">
+      <c r="B72" t="s">
+        <v>732</v>
+      </c>
+      <c r="C72" t="s">
+        <v>735</v>
+      </c>
+      <c r="D72" t="s">
+        <v>738</v>
+      </c>
+      <c r="E72" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>745</v>
-      </c>
-      <c r="C13" t="s">
-        <v>749</v>
-      </c>
-      <c r="D13" t="s">
-        <v>749</v>
-      </c>
-      <c r="E13" t="s">
-        <v>749</v>
-      </c>
-      <c r="F13" t="s">
-        <v>749</v>
-      </c>
-      <c r="G13" t="s">
-        <v>749</v>
-      </c>
-      <c r="H13" t="s">
-        <v>749</v>
-      </c>
-      <c r="I13" t="s">
-        <v>749</v>
-      </c>
-      <c r="J13" t="s">
-        <v>749</v>
-      </c>
-      <c r="K13" t="s">
-        <v>749</v>
-      </c>
-      <c r="L13" t="s">
-        <v>749</v>
-      </c>
-      <c r="M13" t="s">
-        <v>749</v>
-      </c>
-      <c r="N13" t="s">
-        <v>749</v>
-      </c>
-      <c r="O13" t="s">
-        <v>749</v>
-      </c>
-      <c r="P13" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="n">
+      <c r="B73" t="s">
+        <v>799</v>
+      </c>
+      <c r="C73" t="s">
+        <v>802</v>
+      </c>
+      <c r="D73" t="s">
+        <v>805</v>
+      </c>
+      <c r="E73" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>812</v>
-      </c>
-      <c r="C14" t="s">
-        <v>816</v>
-      </c>
-      <c r="D14" t="s">
-        <v>816</v>
-      </c>
-      <c r="E14" t="s">
-        <v>816</v>
-      </c>
-      <c r="F14" t="s">
-        <v>816</v>
-      </c>
-      <c r="G14" t="s">
-        <v>816</v>
-      </c>
-      <c r="H14" t="s">
-        <v>816</v>
-      </c>
-      <c r="I14" t="s">
-        <v>816</v>
-      </c>
-      <c r="J14" t="s">
-        <v>816</v>
-      </c>
-      <c r="K14" t="s">
-        <v>816</v>
-      </c>
-      <c r="L14" t="s">
-        <v>816</v>
-      </c>
-      <c r="M14" t="s">
-        <v>816</v>
-      </c>
-      <c r="N14" t="s">
-        <v>816</v>
-      </c>
-      <c r="O14" t="s">
-        <v>816</v>
-      </c>
-      <c r="P14" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="n">
+      <c r="B74" t="s">
+        <v>859</v>
+      </c>
+      <c r="C74" t="s">
+        <v>862</v>
+      </c>
+      <c r="D74" t="s">
+        <v>671</v>
+      </c>
+      <c r="E74" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" t="s">
-        <v>875</v>
-      </c>
-      <c r="D15" t="s">
-        <v>875</v>
-      </c>
-      <c r="E15" t="s">
-        <v>875</v>
-      </c>
-      <c r="F15" t="s">
-        <v>875</v>
-      </c>
-      <c r="G15" t="s">
-        <v>875</v>
-      </c>
-      <c r="H15" t="s">
-        <v>875</v>
-      </c>
-      <c r="I15" t="s">
-        <v>875</v>
-      </c>
-      <c r="J15" t="s">
-        <v>875</v>
-      </c>
-      <c r="K15" t="s">
-        <v>875</v>
-      </c>
-      <c r="L15" t="s">
-        <v>875</v>
-      </c>
-      <c r="M15" t="s">
-        <v>875</v>
-      </c>
-      <c r="N15" t="s">
-        <v>875</v>
-      </c>
-      <c r="O15" t="s">
-        <v>875</v>
-      </c>
-      <c r="P15" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="n">
+      <c r="B75" t="s">
+        <v>917</v>
+      </c>
+      <c r="C75" t="s">
+        <v>920</v>
+      </c>
+      <c r="D75" t="s">
+        <v>923</v>
+      </c>
+      <c r="E75" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>812</v>
-      </c>
-      <c r="C16" t="s">
-        <v>934</v>
-      </c>
-      <c r="D16" t="s">
-        <v>934</v>
-      </c>
-      <c r="E16" t="s">
-        <v>934</v>
-      </c>
-      <c r="F16" t="s">
-        <v>934</v>
-      </c>
-      <c r="G16" t="s">
-        <v>934</v>
-      </c>
-      <c r="H16" t="s">
-        <v>934</v>
-      </c>
-      <c r="I16" t="s">
-        <v>934</v>
-      </c>
-      <c r="J16" t="s">
-        <v>934</v>
-      </c>
-      <c r="K16" t="s">
-        <v>934</v>
-      </c>
-      <c r="L16" t="s">
-        <v>934</v>
-      </c>
-      <c r="M16" t="s">
-        <v>934</v>
-      </c>
-      <c r="N16" t="s">
-        <v>934</v>
-      </c>
-      <c r="O16" t="s">
-        <v>934</v>
-      </c>
-      <c r="P16" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="n">
+      <c r="B76" t="s">
+        <v>973</v>
+      </c>
+      <c r="C76" t="s">
+        <v>976</v>
+      </c>
+      <c r="D76" t="s">
+        <v>979</v>
+      </c>
+      <c r="E76" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>985</v>
-      </c>
-      <c r="C17" t="s">
-        <v>990</v>
-      </c>
-      <c r="D17" t="s">
-        <v>990</v>
-      </c>
-      <c r="E17" t="s">
-        <v>990</v>
-      </c>
-      <c r="F17" t="s">
-        <v>990</v>
-      </c>
-      <c r="G17" t="s">
-        <v>990</v>
-      </c>
-      <c r="H17" t="s">
-        <v>990</v>
-      </c>
-      <c r="I17" t="s">
-        <v>990</v>
-      </c>
-      <c r="J17" t="s">
-        <v>990</v>
-      </c>
-      <c r="K17" t="s">
-        <v>990</v>
-      </c>
-      <c r="L17" t="s">
-        <v>990</v>
-      </c>
-      <c r="M17" t="s">
-        <v>990</v>
-      </c>
-      <c r="N17" t="s">
-        <v>990</v>
-      </c>
-      <c r="O17" t="s">
-        <v>990</v>
-      </c>
-      <c r="P17" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" t="n">
+      <c r="B77" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="L18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="N18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="O18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="P18" t="s">
-        <v>1057</v>
+      <c r="B78" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Raw Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Raw data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Summary 1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Summary 2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Summary 3" sheetId="4" state="visible" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1123">
   <si>
     <t>AnalyteName</t>
   </si>
@@ -3368,6 +3368,24 @@
   </si>
   <si>
     <t>Analyte 4 (VEGF-A)</t>
+  </si>
+  <si>
+    <t>Curve Coefficients</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -17697,7 +17715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17733,13 +17751,13 @@
       </c>
       <c r="B3" s="3" t="s"/>
       <c r="C3" s="3" t="n">
-        <v>2516.638</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>14.864</v>
+        <v>0.992</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>9.885</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -17750,13 +17768,13 @@
         <v>251.447</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>300.499</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>4.244</v>
+        <v>0.992</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>7.001</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -17767,13 +17785,13 @@
         <v>43.178</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>3.114</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>1.356</v>
+        <v>0.992</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>3.486</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -17784,13 +17802,13 @@
         <v>220.959</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>199.286</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>1.998</v>
+        <v>0.992</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>21.529</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -17801,13 +17819,13 @@
         <v>8.832000000000001</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>2911.739</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>4.551</v>
+        <v>0.992</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>11.347</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -17818,13 +17836,13 @@
         <v/>
       </c>
       <c r="C8" s="3" t="n">
-        <v>9138.264999999999</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>23.601</v>
+        <v>0.992</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>44.541</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -17835,13 +17853,13 @@
         <v>95.056</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>5.653</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>7.967</v>
+        <v>0.992</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>31.4</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -17852,13 +17870,13 @@
         <v>44.563</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>3.015</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>3.136</v>
+        <v>0.992</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>15.514</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -17869,13 +17887,13 @@
         <v>63.467</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>4.064</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>3.484</v>
+        <v>0.992</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>16.596</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -17886,13 +17904,13 @@
         <v>53.456</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>5.195</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>3.113</v>
+        <v>0.992</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>7.099</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -17903,13 +17921,13 @@
         <v>122.528</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>98.59399999999999</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>3.879</v>
+        <v>0.992</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>24.186</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -17920,13 +17938,13 @@
         <v>0.507</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>91.407</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1.113</v>
+        <v>0.992</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>4.364</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -17937,13 +17955,13 @@
         <v>170.568</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>4.488</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>11.643</v>
+        <v>0.992</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>79.804</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -17954,13 +17972,13 @@
         <v>0.54</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.328</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.992</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>4.51</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -17971,13 +17989,13 @@
         <v>449.735</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>3796.264</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>1683.679</v>
+        <v>0.992</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>4352.849</v>
+        <v>4665.583</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -17988,13 +18006,58 @@
         <v>9.24</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>82.577</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>40.075</v>
+        <v>0.992</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>63.982</v>
+        <v>4665.583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>1122</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -17751,13 +17751,13 @@
       </c>
       <c r="B3" s="3" t="s"/>
       <c r="C3" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>2516.638</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.992</v>
+        <v>14.864</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>4665.583</v>
+        <v>9.885</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -17768,13 +17768,13 @@
         <v>251.447</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>300.499</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.992</v>
+        <v>4.244</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>4665.583</v>
+        <v>7.001</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -17785,13 +17785,13 @@
         <v>43.178</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>3.114</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.992</v>
+        <v>1.356</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>4665.583</v>
+        <v>3.486</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -17802,13 +17802,13 @@
         <v>220.959</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>199.286</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.992</v>
+        <v>1.998</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>4665.583</v>
+        <v>21.529</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -17819,13 +17819,13 @@
         <v>8.832000000000001</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>2911.739</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.992</v>
+        <v>4.551</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>4665.583</v>
+        <v>11.347</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -17836,13 +17836,13 @@
         <v/>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>9138.264999999999</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.992</v>
+        <v>23.601</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>4665.583</v>
+        <v>44.541</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -17853,13 +17853,13 @@
         <v>95.056</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>5.653</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.992</v>
+        <v>7.967</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>4665.583</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -17870,13 +17870,13 @@
         <v>44.563</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>3.015</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.992</v>
+        <v>3.136</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>4665.583</v>
+        <v>15.514</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -17887,13 +17887,13 @@
         <v>63.467</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>4.064</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.992</v>
+        <v>3.484</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>4665.583</v>
+        <v>16.596</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -17904,13 +17904,13 @@
         <v>53.456</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>5.195</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.992</v>
+        <v>3.113</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>4665.583</v>
+        <v>7.099</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -17921,13 +17921,13 @@
         <v>122.528</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>98.59399999999999</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.992</v>
+        <v>3.879</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>4665.583</v>
+        <v>24.186</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -17938,13 +17938,13 @@
         <v>0.507</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>91.407</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>0.992</v>
+        <v>1.113</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>4665.583</v>
+        <v>4.364</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -17955,13 +17955,13 @@
         <v>170.568</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>4.488</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.992</v>
+        <v>11.643</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>4665.583</v>
+        <v>79.804</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -17972,13 +17972,13 @@
         <v>0.54</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.328</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.992</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>4665.583</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -17989,13 +17989,13 @@
         <v>449.735</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>3796.264</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.992</v>
+        <v>1683.679</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>4665.583</v>
+        <v>4352.849</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -18006,13 +18006,13 @@
         <v>9.24</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.07099999999999999</v>
+        <v>82.577</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.992</v>
+        <v>40.075</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>4665.583</v>
+        <v>63.982</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -18039,25 +18039,85 @@
       <c r="A22" s="2" t="s">
         <v>1118</v>
       </c>
+      <c r="B22" s="3" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>1.568</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>1119</v>
       </c>
+      <c r="B23" s="3" t="n">
+        <v>1.232</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0.972</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>1120</v>
       </c>
+      <c r="B24" s="3" t="n">
+        <v>641.472</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>3926.232</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>4088.067</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>4665.583</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>1121</v>
       </c>
+      <c r="B25" s="3" t="n">
+        <v>1368.234</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>923.313</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>979.289</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>848.638</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>1122</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -3454,6 +3454,523 @@
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:r>
+              <a:t>Test</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Summary 3'!B43</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Summary 3'!$B$28:$B$42</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Summary 3'!$B$44:$B$57</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <logBase val="10"/>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:r>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <logBase val="10"/>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:r>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:r>
+              <a:t>Test</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Summary 3'!C45</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Summary 3'!$C$28:$C$44</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Summary 3'!$C$46:$C$61</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <logBase val="10"/>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:r>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <logBase val="10"/>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:r>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:r>
+              <a:t>Test</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Summary 3'!D45</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Summary 3'!$D$28:$D$44</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Summary 3'!$D$46:$D$61</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <logBase val="10"/>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:r>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <logBase val="10"/>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:r>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:r>
+              <a:t>Test</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Summary 3'!E45</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Summary 3'!$E$28:$E$44</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Summary 3'!$E$46:$E$61</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <logBase val="10"/>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:r>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <logBase val="10"/>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:r>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17710,12 +18227,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18015,6 +18532,7 @@
         <v>63.982</v>
       </c>
     </row>
+    <row r="19" spans="1:5"/>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>1117</v>
@@ -18120,7 +18638,445 @@
         <v>0.92</v>
       </c>
     </row>
+    <row r="28" spans="1:5">
+      <c r="B28" t="n">
+        <v>251.447</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2516.638</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14.864</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9.885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="n">
+        <v>43.178</v>
+      </c>
+      <c r="C29" t="n">
+        <v>300.499</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.244</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7.001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="n">
+        <v>220.959</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.356</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="n">
+        <v>8.832000000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>199.286</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.998</v>
+      </c>
+      <c r="E31" t="n">
+        <v>21.529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="n">
+        <v>95.056</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2911.739</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.551</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11.347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" t="n">
+        <v>44.563</v>
+      </c>
+      <c r="C33" t="n">
+        <v>9138.264999999999</v>
+      </c>
+      <c r="D33" t="n">
+        <v>23.601</v>
+      </c>
+      <c r="E33" t="n">
+        <v>44.541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" t="n">
+        <v>63.467</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.653</v>
+      </c>
+      <c r="D34" t="n">
+        <v>7.967</v>
+      </c>
+      <c r="E34" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" t="n">
+        <v>53.456</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="E35" t="n">
+        <v>15.514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" t="n">
+        <v>122.528</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.064</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.484</v>
+      </c>
+      <c r="E36" t="n">
+        <v>16.596</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5.195</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7.099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" t="n">
+        <v>170.568</v>
+      </c>
+      <c r="C38" t="n">
+        <v>98.59399999999999</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="E38" t="n">
+        <v>24.186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C39" t="n">
+        <v>91.407</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.113</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" t="n">
+        <v>449.735</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.488</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11.643</v>
+      </c>
+      <c r="E40" t="n">
+        <v>79.804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" t="n">
+        <v>883967679.5087382</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3796.264</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1683.679</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4352.849</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" t="n">
+        <v>2070181.355973241</v>
+      </c>
+      <c r="C43" t="n">
+        <v>82.577</v>
+      </c>
+      <c r="D43" t="n">
+        <v>40.075</v>
+      </c>
+      <c r="E43" t="n">
+        <v>63.982</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" t="n">
+        <v>535948229.2724962</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2888418492854.386</v>
+      </c>
+      <c r="D44" t="n">
+        <v>932350.6918007598</v>
+      </c>
+      <c r="E44" t="n">
+        <v>480188.7851928486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" t="n">
+        <v>64224.84884531287</v>
+      </c>
+      <c r="C45" t="n">
+        <v>960207296.8401741</v>
+      </c>
+      <c r="D45" t="n">
+        <v>77940.16426757212</v>
+      </c>
+      <c r="E45" t="n">
+        <v>238721.5831270319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" t="n">
+        <v>23802753.31708451</v>
+      </c>
+      <c r="C46" t="n">
+        <v>40985.0224684085</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8848.651607137899</v>
+      </c>
+      <c r="E46" t="n">
+        <v>59929.08330240878</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47" t="n">
+        <v>2256265.290966504</v>
+      </c>
+      <c r="C47" t="n">
+        <v>275817172.2678658</v>
+      </c>
+      <c r="D47" t="n">
+        <v>18288.41062832522</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2527311.967789748</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" t="n">
+        <v>6328091.000363182</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5160859419679.919</v>
+      </c>
+      <c r="D48" t="n">
+        <v>89320.78436895688</v>
+      </c>
+      <c r="E48" t="n">
+        <v>637758.6963428808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" t="n">
+        <v>3776471.962896838</v>
+      </c>
+      <c r="C49" t="n">
+        <v>496195192117753</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2385215.94749074</v>
+      </c>
+      <c r="E49" t="n">
+        <v>15551175.57671524</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" t="n">
+        <v>58495494.67818431</v>
+      </c>
+      <c r="C50" t="n">
+        <v>130937.4554078715</v>
+      </c>
+      <c r="D50" t="n">
+        <v>268721.1718335363</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6181098.302516798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" t="n">
+        <v>859.6335443853866</v>
+      </c>
+      <c r="C51" t="n">
+        <v>38507.76171539472</v>
+      </c>
+      <c r="D51" t="n">
+        <v>43328.76353113752</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1230560.693781876</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" t="n">
+        <v>199373947.3203827</v>
+      </c>
+      <c r="C52" t="n">
+        <v>68684.23152238516</v>
+      </c>
+      <c r="D52" t="n">
+        <v>53110.58227760816</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1422505.1725691</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" t="n">
+        <v>926.98610714336</v>
+      </c>
+      <c r="C53" t="n">
+        <v>110947.3212249596</v>
+      </c>
+      <c r="D53" t="n">
+        <v>42717.35498839306</v>
+      </c>
+      <c r="E53" t="n">
+        <v>245481.2433333464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" t="n">
+        <v>8669835272.459473</v>
+      </c>
+      <c r="C54" t="n">
+        <v>45900547.92983562</v>
+      </c>
+      <c r="D54" t="n">
+        <v>65421.36468307132</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3300009.568510096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" t="n">
+        <v>69884.21118861056</v>
+      </c>
+      <c r="C55" t="n">
+        <v>38590153.90784254</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6156.445061704228</v>
+      </c>
+      <c r="E55" t="n">
+        <v>93207.53846279458</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="C56" t="n">
+        <v>83344.5541826323</v>
+      </c>
+      <c r="D56" t="n">
+        <v>571407.582434931</v>
+      </c>
+      <c r="E56" t="n">
+        <v>93873520.05482757</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="C57" t="n">
+        <v>726.3336346277111</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4517.034591978349</v>
+      </c>
+      <c r="E57" t="n">
+        <v>99464.57990091167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="C58" t="n">
+        <v>14856260322557.55</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1880665272038.797</v>
+      </c>
+      <c r="E58" t="n">
+        <v>563080515532511.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="C59" t="n">
+        <v>30699454.37774594</v>
+      </c>
+      <c r="D59" t="n">
+        <v>7266936.939737717</v>
+      </c>
+      <c r="E59" t="n">
+        <v>45685459.65257498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>